--- a/Resources/Excel/Celulas de Carga.xlsx
+++ b/Resources/Excel/Celulas de Carga.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rogiel/Documents/GitHub/ufrgs-instrumentacao-lab5/Resources/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheila\Desktop\Instrumentação\Github\ufrgs-instrumentacao-lab5\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20020"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20025" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CelulaComercial5Kg" sheetId="3" r:id="rId1"/>
     <sheet name="CélulaNCom0,2" sheetId="4" r:id="rId2"/>
     <sheet name="Torquimetro" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Tensão (V)</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>200 mV</t>
+  </si>
+  <si>
+    <t>lbf.ft</t>
+  </si>
+  <si>
+    <t>mV</t>
   </si>
 </sst>
 </file>
@@ -138,7 +144,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -176,7 +182,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -227,8 +233,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0968267716535433"/>
-                  <c:y val="-0.68572579469233"/>
+                  <c:x val="9.6826771653543295E-2"/>
+                  <c:y val="-0.68572579469232997"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -256,7 +262,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-BR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -268,7 +274,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2</c:v>
@@ -283,7 +289,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.2</c:v>
@@ -298,10 +304,10 @@
                   <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.4</c:v>
@@ -313,7 +319,7 @@
                   <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3.2</c:v>
@@ -328,25 +334,25 @@
                   <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.4</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.6</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.2</c:v>
@@ -361,7 +367,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.2</c:v>
@@ -376,10 +382,10 @@
                   <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.2</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2.4</c:v>
@@ -391,7 +397,7 @@
                   <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3.2</c:v>
@@ -406,22 +412,22 @@
                   <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.4</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.6</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -445,22 +451,22 @@
                   <c:v>1.863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.852</c:v>
+                  <c:v>1.8520000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.841</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="#,##0.000">
+                <c:pt idx="6" formatCode="#.##0.000">
                   <c:v>1.823</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.818</c:v>
+                  <c:v>1.8180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.806</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.795</c:v>
+                  <c:v>1.7949999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.784</c:v>
@@ -475,7 +481,7 @@
                   <c:v>1.748</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.737</c:v>
+                  <c:v>1.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.724</c:v>
@@ -487,19 +493,19 @@
                   <c:v>1.702</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.691</c:v>
+                  <c:v>1.6910000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.679</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.668</c:v>
+                  <c:v>1.6679999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.652</c:v>
+                  <c:v>1.6519999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.644</c:v>
+                  <c:v>1.6439999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1.631</c:v>
@@ -511,7 +517,7 @@
                   <c:v>1.609</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.896</c:v>
+                  <c:v>1.8959999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1.885</c:v>
@@ -520,37 +526,37 @@
                   <c:v>1.867</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.858</c:v>
+                  <c:v>1.8580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.846</c:v>
+                  <c:v>1.8460000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.834</c:v>
+                  <c:v>1.8340000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.827</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.811</c:v>
+                  <c:v>1.8109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.799</c:v>
+                  <c:v>1.7989999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1.788</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.781</c:v>
+                  <c:v>1.7809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.769</c:v>
+                  <c:v>1.7689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.757</c:v>
+                  <c:v>1.7569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.743</c:v>
+                  <c:v>1.7430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1.734</c:v>
@@ -562,10 +568,10 @@
                   <c:v>1.712</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.695</c:v>
+                  <c:v>1.6950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.684</c:v>
+                  <c:v>1.6839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1.671</c:v>
@@ -574,10 +580,10 @@
                   <c:v>1.665</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.654</c:v>
+                  <c:v>1.6539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.642</c:v>
+                  <c:v>1.6419999999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1.631</c:v>
@@ -586,7 +592,7 @@
                   <c:v>1.619</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.608</c:v>
+                  <c:v>1.6080000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -601,11 +607,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2119077424"/>
-        <c:axId val="-2114234176"/>
+        <c:axId val="408593856"/>
+        <c:axId val="408597776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2119077424"/>
+        <c:axId val="408593856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,15 +665,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114234176"/>
+        <c:crossAx val="408597776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2114234176"/>
+        <c:axId val="408597776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,10 +727,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119077424"/>
+        <c:crossAx val="408593856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -762,12 +768,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.511811024" r="0.511811024" t="0.787401575" header="0.31496062" footer="0.31496062"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -776,7 +782,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -814,7 +820,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -866,7 +872,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.118254000798636"/>
-                  <c:y val="-0.721443205016039"/>
+                  <c:y val="-0.72144320501603898"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -894,7 +900,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-BR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -906,7 +912,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2</c:v>
@@ -921,10 +927,10 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.2</c:v>
@@ -939,7 +945,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,19 +957,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.273</c:v>
+                  <c:v>1.2729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.262</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.249</c:v>
+                  <c:v>1.2490000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.242</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.233</c:v>
+                  <c:v>1.2330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.226</c:v>
@@ -972,19 +978,19 @@
                   <c:v>1.272</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.261</c:v>
+                  <c:v>1.2609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.253</c:v>
+                  <c:v>1.2529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.244</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.233</c:v>
+                  <c:v>1.2330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.225</c:v>
+                  <c:v>1.2250000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,11 +1005,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2138739760"/>
-        <c:axId val="-2138644768"/>
+        <c:axId val="408600128"/>
+        <c:axId val="408599344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2138739760"/>
+        <c:axId val="408600128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,15 +1063,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2138644768"/>
+        <c:crossAx val="408599344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2138644768"/>
+        <c:axId val="408599344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,10 +1125,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2138739760"/>
+        <c:crossAx val="408600128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1160,12 +1166,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.511811024" r="0.511811024" t="0.787401575" header="0.31496062" footer="0.31496062"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1174,7 +1180,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1212,7 +1218,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1263,8 +1269,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.129823709536308"/>
-                  <c:y val="-0.35939049285506"/>
+                  <c:x val="0.12982370953630801"/>
+                  <c:y val="-0.35939049285505997"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1292,41 +1298,41 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-BR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Torquimetro!$A$1:$A$6</c:f>
+              <c:f>Torquimetro!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Torquimetro!$B$1:$B$6</c:f>
+              <c:f>Torquimetro!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1334,7 +1340,7 @@
                   <c:v>-101.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-73.4</c:v>
+                  <c:v>-73.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-65.3</c:v>
@@ -1361,11 +1367,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2138701776"/>
-        <c:axId val="-2138758736"/>
+        <c:axId val="408596208"/>
+        <c:axId val="408598560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2138701776"/>
+        <c:axId val="408596208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,15 +1425,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2138758736"/>
+        <c:crossAx val="408598560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2138758736"/>
+        <c:axId val="408598560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,10 +1487,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2138701776"/>
+        <c:crossAx val="408596208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1522,12 +1528,12 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.787401575" l="0.511811024" r="0.511811024" t="0.787401575" header="0.31496062" footer="0.31496062"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3277,13 +3283,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>268287</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>636587</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3571,16 +3577,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3594,7 +3600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3606,7 +3612,7 @@
         <v>{0,1.899},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.4</v>
       </c>
@@ -3639,7 +3645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.6</v>
       </c>
@@ -3654,7 +3660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.8</v>
       </c>
@@ -3672,7 +3678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3684,7 +3690,7 @@
         <v>{1,1.841},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.2</v>
       </c>
@@ -3696,7 +3702,7 @@
         <v>{1.2,1.823},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.4</v>
       </c>
@@ -3708,7 +3714,7 @@
         <v>{1.4,1.818},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.6</v>
       </c>
@@ -3720,7 +3726,7 @@
         <v>{1.6,1.806},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.8</v>
       </c>
@@ -3732,7 +3738,7 @@
         <v>{1.8,1.795},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3744,7 +3750,7 @@
         <v>{2,1.784},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2.2000000000000002</v>
       </c>
@@ -3756,7 +3762,7 @@
         <v>{2.2,1.766},</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.4</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>{2.4,1.76},</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2.6</v>
       </c>
@@ -3780,7 +3786,7 @@
         <v>{2.6,1.748},</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.8</v>
       </c>
@@ -3792,7 +3798,7 @@
         <v>{2.8,1.737},</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3804,7 +3810,7 @@
         <v>{3,1.724},</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3.2</v>
       </c>
@@ -3816,7 +3822,7 @@
         <v>{3.2,1.708},</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.4</v>
       </c>
@@ -3828,7 +3834,7 @@
         <v>{3.4,1.702},</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.6</v>
       </c>
@@ -3840,7 +3846,7 @@
         <v>{3.6,1.691},</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3.8</v>
       </c>
@@ -3852,7 +3858,7 @@
         <v>{3.8,1.679},</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3864,7 +3870,7 @@
         <v>{4,1.668},</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -3876,7 +3882,7 @@
         <v>{4.2,1.652},</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -3888,7 +3894,7 @@
         <v>{4.4,1.644},</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4.5999999999999996</v>
       </c>
@@ -3900,7 +3906,7 @@
         <v>{4.6,1.631},</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4.8</v>
       </c>
@@ -3912,7 +3918,7 @@
         <v>{4.8,1.621},</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -3924,7 +3930,7 @@
         <v>{5,1.609},</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3936,7 +3942,7 @@
         <v>{0,1.896},</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.2</v>
       </c>
@@ -3948,7 +3954,7 @@
         <v>{0.2,1.885},</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.4</v>
       </c>
@@ -3960,7 +3966,7 @@
         <v>{0.4,1.867},</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.6</v>
       </c>
@@ -3972,7 +3978,7 @@
         <v>{0.6,1.858},</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.8</v>
       </c>
@@ -3984,7 +3990,7 @@
         <v>{0.8,1.846},</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3996,7 +4002,7 @@
         <v>{1,1.834},</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1.2</v>
       </c>
@@ -4008,7 +4014,7 @@
         <v>{1.2,1.827},</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1.4</v>
       </c>
@@ -4020,7 +4026,7 @@
         <v>{1.4,1.811},</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1.6</v>
       </c>
@@ -4032,7 +4038,7 @@
         <v>{1.6,1.799},</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.8</v>
       </c>
@@ -4044,7 +4050,7 @@
         <v>{1.8,1.788},</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -4056,7 +4062,7 @@
         <v>{2,1.781},</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2.2000000000000002</v>
       </c>
@@ -4068,7 +4074,7 @@
         <v>{2.2,1.769},</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.4</v>
       </c>
@@ -4080,7 +4086,7 @@
         <v>{2.4,1.757},</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.6</v>
       </c>
@@ -4092,7 +4098,7 @@
         <v>{2.6,1.743},</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2.8</v>
       </c>
@@ -4104,7 +4110,7 @@
         <v>{2.8,1.734},</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -4116,7 +4122,7 @@
         <v>{3,1.718},</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3.2</v>
       </c>
@@ -4128,7 +4134,7 @@
         <v>{3.2,1.712},</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3.4</v>
       </c>
@@ -4140,7 +4146,7 @@
         <v>{3.4,1.695},</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3.6</v>
       </c>
@@ -4152,7 +4158,7 @@
         <v>{3.6,1.684},</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3.8</v>
       </c>
@@ -4164,7 +4170,7 @@
         <v>{3.8,1.671},</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -4176,7 +4182,7 @@
         <v>{4,1.665},</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4.2</v>
       </c>
@@ -4188,7 +4194,7 @@
         <v>{4.2,1.654},</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4.4000000000000004</v>
       </c>
@@ -4200,7 +4206,7 @@
         <v>{4.4,1.642},</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4.5999999999999996</v>
       </c>
@@ -4212,7 +4218,7 @@
         <v>{4.6,1.631},</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4.8</v>
       </c>
@@ -4224,7 +4230,7 @@
         <v>{4.8,1.619},</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5</v>
       </c>
@@ -4250,9 +4256,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -4273,7 +4279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.2</v>
       </c>
@@ -4285,7 +4291,7 @@
         <v>{0.2,1.262},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.4</v>
       </c>
@@ -4297,7 +4303,7 @@
         <v>{0.4,1.249},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.6</v>
       </c>
@@ -4309,7 +4315,7 @@
         <v>{0.6,1.242},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.8</v>
       </c>
@@ -4321,7 +4327,7 @@
         <v>{0.8,1.233},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -4333,7 +4339,7 @@
         <v>{1,1.226},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -4345,7 +4351,7 @@
         <v>{0,1.272},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.2</v>
       </c>
@@ -4357,7 +4363,7 @@
         <v>{0.2,1.261},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.4</v>
       </c>
@@ -4369,7 +4375,7 @@
         <v>{0.4,1.253},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.6</v>
       </c>
@@ -4381,7 +4387,7 @@
         <v>{0.6,1.244},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.8</v>
       </c>
@@ -4393,7 +4399,7 @@
         <v>{0.8,1.233},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -4405,22 +4411,22 @@
         <v>{1,1.225},</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
     </row>
   </sheetData>
@@ -4431,88 +4437,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>-101.1</v>
-      </c>
-      <c r="C1" t="str">
-        <f>CONCATENATE("{", A1, ",", B1, "},")</f>
-        <v>{0,-101.1},</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>-73.400000000000006</v>
       </c>
       <c r="C2" t="str">
         <f>CONCATENATE("{", A2, ",", B2, "},")</f>
+        <v>{0,-101.1},</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>-73.400000000000006</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE("{", A3, ",", B3, "},")</f>
         <v>{20,-73.4},</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>30</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>-65.3</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C6" si="0">CONCATENATE("{", A3, ",", B3, "},")</f>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C7" si="0">CONCATENATE("{", A4, ",", B4, "},")</f>
         <v>{30,-65.3},</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>40</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>-64.3</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>{40,-64.3},</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>50</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>-53.6</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>{50,-53.6},</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>60</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>-44.7</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>{60,-44.7},</v>
       </c>

--- a/Resources/Excel/Celulas de Carga.xlsx
+++ b/Resources/Excel/Celulas de Carga.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20025" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20025"/>
   </bookViews>
   <sheets>
     <sheet name="CelulaComercial5Kg" sheetId="3" r:id="rId1"/>
@@ -607,11 +607,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408593856"/>
-        <c:axId val="408597776"/>
+        <c:axId val="480554056"/>
+        <c:axId val="480557584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408593856"/>
+        <c:axId val="480554056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,12 +668,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408597776"/>
+        <c:crossAx val="480557584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408597776"/>
+        <c:axId val="480557584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +730,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408593856"/>
+        <c:crossAx val="480554056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1005,11 +1005,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408600128"/>
-        <c:axId val="408599344"/>
+        <c:axId val="480557192"/>
+        <c:axId val="480559936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408600128"/>
+        <c:axId val="480557192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,12 +1066,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408599344"/>
+        <c:crossAx val="480559936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408599344"/>
+        <c:axId val="480559936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1128,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408600128"/>
+        <c:crossAx val="480557192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1367,11 +1367,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408596208"/>
-        <c:axId val="408598560"/>
+        <c:axId val="480560328"/>
+        <c:axId val="480561504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408596208"/>
+        <c:axId val="480560328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,12 +1428,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408598560"/>
+        <c:crossAx val="480561504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408598560"/>
+        <c:axId val="480561504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,7 +1490,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408596208"/>
+        <c:crossAx val="480560328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3575,10 +3575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I53" sqref="I2:I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3586,7 +3586,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3611,8 +3611,12 @@
         <f>CONCATENATE("{", A2, ",", B2, "},")</f>
         <v>{0,1.899},</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f t="shared" ref="I2:I52" si="0">B2/29.2424</f>
+        <v>6.4939950209285155E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -3620,14 +3624,18 @@
         <v>1.887</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C52" si="0">CONCATENATE("{", A3, ",", B3, "},")</f>
+        <f t="shared" ref="C3:C52" si="1">CONCATENATE("{", A3, ",", B3, "},")</f>
         <v>{0.2,1.887},</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>6.4529587174787295E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.4</v>
       </c>
@@ -3635,7 +3643,7 @@
         <v>1.875</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{0.4,1.875},</v>
       </c>
       <c r="D4" t="s">
@@ -3644,8 +3652,12 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>6.4119224140289449E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.6</v>
       </c>
@@ -3653,14 +3665,18 @@
         <v>1.863</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{0.6,1.863},</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>6.3708861105791589E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.8</v>
       </c>
@@ -3668,7 +3684,7 @@
         <v>1.8520000000000001</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{0.8,1.852},</v>
       </c>
       <c r="E6" t="s">
@@ -3677,8 +3693,12 @@
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>6.3332694990835228E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3686,11 +3706,15 @@
         <v>1.841</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{1,1.841},</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>6.2956528875878853E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.2</v>
       </c>
@@ -3698,11 +3722,15 @@
         <v>1.823</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{1.2,1.823},</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>6.2340984324132077E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.4</v>
       </c>
@@ -3710,11 +3738,15 @@
         <v>1.8180000000000001</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{1.4,1.818},</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>6.2169999726424646E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.6</v>
       </c>
@@ -3722,11 +3754,15 @@
         <v>1.806</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{1.6,1.806},</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>6.1759636691926793E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.8</v>
       </c>
@@ -3734,11 +3770,15 @@
         <v>1.7949999999999999</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{1.8,1.795},</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>6.1383470576970425E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3746,11 +3786,15 @@
         <v>1.784</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{2,1.784},</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>6.1007304462014064E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2.2000000000000002</v>
       </c>
@@ -3758,11 +3802,15 @@
         <v>1.766</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{2.2,1.766},</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>6.0391759910267281E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.4</v>
       </c>
@@ -3770,11 +3818,15 @@
         <v>1.76</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{2.4,1.76},</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>6.0186578393018358E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2.6</v>
       </c>
@@ -3782,11 +3834,15 @@
         <v>1.748</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{2.6,1.748},</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>5.9776215358520506E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.8</v>
       </c>
@@ -3794,11 +3850,15 @@
         <v>1.7370000000000001</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{2.8,1.737},</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>5.9400049243564144E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3806,11 +3866,15 @@
         <v>1.724</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{3,1.724},</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>5.89554892895248E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3.2</v>
       </c>
@@ -3818,11 +3882,15 @@
         <v>1.708</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{3.2,1.708},</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>5.8408338576860994E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.4</v>
       </c>
@@ -3830,11 +3898,15 @@
         <v>1.702</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{3.4,1.702},</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>5.8203157059612071E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.6</v>
       </c>
@@ -3842,11 +3914,15 @@
         <v>1.6910000000000001</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{3.6,1.691},</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>5.782699094465571E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3.8</v>
       </c>
@@ -3854,11 +3930,15 @@
         <v>1.679</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{3.8,1.679},</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>5.7416627910157857E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3866,11 +3946,15 @@
         <v>1.6679999999999999</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{4,1.668},</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>5.7040461795201489E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -3878,11 +3962,15 @@
         <v>1.6519999999999999</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{4.2,1.652},</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>5.6493311082537682E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -3890,11 +3978,15 @@
         <v>1.6439999999999999</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{4.4,1.644},</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>5.6219735726205783E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4.5999999999999996</v>
       </c>
@@ -3902,11 +3994,15 @@
         <v>1.631</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{4.6,1.631},</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>5.5775175772166445E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4.8</v>
       </c>
@@ -3914,11 +4010,15 @@
         <v>1.621</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{4.8,1.621},</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>5.5433206576751569E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -3926,11 +4026,15 @@
         <v>1.609</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{5,1.609},</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>5.5022843542253716E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3938,11 +4042,15 @@
         <v>1.8959999999999999</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{0,1.896},</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>6.4837359450660687E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.2</v>
       </c>
@@ -3950,11 +4058,15 @@
         <v>1.885</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{0.2,1.885},</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>6.4461193335704325E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.4</v>
       </c>
@@ -3962,11 +4074,15 @@
         <v>1.867</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{0.4,1.867},</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>6.3845648783957543E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.6</v>
       </c>
@@ -3974,11 +4090,15 @@
         <v>1.8580000000000001</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{0.6,1.858},</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>6.3537876508084151E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.8</v>
       </c>
@@ -3986,11 +4106,15 @@
         <v>1.8460000000000001</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{0.8,1.846},</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>6.3127513473586305E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3998,11 +4122,15 @@
         <v>1.8340000000000001</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{1,1.834},</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>6.2717150439088445E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1.2</v>
       </c>
@@ -4010,11 +4138,15 @@
         <v>1.827</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{1.2,1.827},</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>6.2477772002298031E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1.4</v>
       </c>
@@ -4022,11 +4154,15 @@
         <v>1.8109999999999999</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{1.4,1.811},</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>6.1930621289634225E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1.6</v>
       </c>
@@ -4034,11 +4170,15 @@
         <v>1.7989999999999999</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{1.6,1.799},</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>6.1520258255136379E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.8</v>
       </c>
@@ -4046,11 +4186,15 @@
         <v>1.788</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{1.8,1.788},</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>6.1144092140180011E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -4058,11 +4202,15 @@
         <v>1.7809999999999999</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{2,1.781},</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>6.0904713703389596E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2.2000000000000002</v>
       </c>
@@ -4070,11 +4218,15 @@
         <v>1.7689999999999999</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{2.2,1.769},</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>6.0494350668891743E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.4</v>
       </c>
@@ -4082,11 +4234,15 @@
         <v>1.7569999999999999</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{2.4,1.757},</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>6.008398763439389E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.6</v>
       </c>
@@ -4094,11 +4250,15 @@
         <v>1.7430000000000001</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{2.6,1.743},</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>5.9605230760813067E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2.8</v>
       </c>
@@ -4106,11 +4266,15 @@
         <v>1.734</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{2.8,1.734},</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>5.9297458484939676E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -4118,11 +4282,15 @@
         <v>1.718</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{3,1.718},</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>5.875030777227587E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3.2</v>
       </c>
@@ -4130,11 +4298,15 @@
         <v>1.712</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{3.2,1.712},</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>5.8545126255026947E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3.4</v>
       </c>
@@ -4142,11 +4314,15 @@
         <v>1.6950000000000001</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{3.4,1.695},</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>5.7963778622821656E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3.6</v>
       </c>
@@ -4154,11 +4330,15 @@
         <v>1.6839999999999999</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{3.6,1.684},</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>5.7587612507865288E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3.8</v>
       </c>
@@ -4166,11 +4346,15 @@
         <v>1.671</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{3.8,1.671},</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>5.714305255382595E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -4178,11 +4362,15 @@
         <v>1.665</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{4,1.665},</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>5.6937871036577027E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4.2</v>
       </c>
@@ -4190,11 +4378,15 @@
         <v>1.6539999999999999</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{4.2,1.654},</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>5.6561704921620659E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4.4000000000000004</v>
       </c>
@@ -4202,11 +4394,15 @@
         <v>1.6419999999999999</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{4.4,1.642},</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>5.6151341887122806E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4.5999999999999996</v>
       </c>
@@ -4214,11 +4410,15 @@
         <v>1.631</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{4.6,1.631},</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>5.5775175772166445E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4.8</v>
       </c>
@@ -4226,11 +4426,15 @@
         <v>1.619</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{4.8,1.619},</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>5.5364812737668592E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5</v>
       </c>
@@ -4240,6 +4444,10 @@
       <c r="C53" t="str">
         <f>CONCATENATE("{", A53, ",", B53, "},")</f>
         <v>{5,1.608},</v>
+      </c>
+      <c r="I53">
+        <f>B53/29.2424</f>
+        <v>5.4988646622712231E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4439,7 +4647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Resources/Excel/Celulas de Carga.xlsx
+++ b/Resources/Excel/Celulas de Carga.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20025"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CelulaComercial5Kg" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Tensão (V)</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>mV</t>
+  </si>
+  <si>
+    <t>M pela FT</t>
+  </si>
+  <si>
+    <t>Erro regressão</t>
+  </si>
+  <si>
+    <t>m pela FT</t>
   </si>
 </sst>
 </file>
@@ -607,11 +616,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="480554056"/>
-        <c:axId val="480557584"/>
+        <c:axId val="416233216"/>
+        <c:axId val="416237528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="480554056"/>
+        <c:axId val="416233216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,12 +677,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480557584"/>
+        <c:crossAx val="416237528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="480557584"/>
+        <c:axId val="416237528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +739,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480554056"/>
+        <c:crossAx val="416233216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1005,11 +1014,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="480557192"/>
-        <c:axId val="480559936"/>
+        <c:axId val="413675400"/>
+        <c:axId val="413675008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="480557192"/>
+        <c:axId val="413675400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,12 +1075,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480559936"/>
+        <c:crossAx val="413675008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="480559936"/>
+        <c:axId val="413675008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1137,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480557192"/>
+        <c:crossAx val="413675400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1367,11 +1376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="480560328"/>
-        <c:axId val="480561504"/>
+        <c:axId val="413672656"/>
+        <c:axId val="413677752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="480560328"/>
+        <c:axId val="413672656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,12 +1437,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480561504"/>
+        <c:crossAx val="413677752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="480561504"/>
+        <c:axId val="413677752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,7 +1499,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480560328"/>
+        <c:crossAx val="413672656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3246,16 +3255,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>465625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15019</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3577,13 +3586,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I53" sqref="I2:I53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3599,6 +3609,12 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -3611,9 +3627,13 @@
         <f>CONCATENATE("{", A2, ",", B2, "},")</f>
         <v>{0,1.899},</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I52" si="0">B2/29.2424</f>
-        <v>6.4939950209285155E-2</v>
+      <c r="H2">
+        <f>32.9198-(17.3681*B2)</f>
+        <v>-6.2221899999997277E-2</v>
+      </c>
+      <c r="I2" s="3" t="e">
+        <f>((A2-H2)/A2)*100</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3624,15 +3644,19 @@
         <v>1.887</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C52" si="1">CONCATENATE("{", A3, ",", B3, "},")</f>
+        <f t="shared" ref="C3:C52" si="0">CONCATENATE("{", A3, ",", B3, "},")</f>
         <v>{0.2,1.887},</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>6.4529587174787295E-2</v>
+      <c r="H3">
+        <f t="shared" ref="H3:H53" si="1">32.9198-(17.3681*B3)</f>
+        <v>0.14619530000000225</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I53" si="2">((A3-H3)/A3)*100</f>
+        <v>26.902349999998883</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3643,7 +3667,7 @@
         <v>1.875</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{0.4,1.875},</v>
       </c>
       <c r="D4" t="s">
@@ -3652,9 +3676,13 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>6.4119224140289449E-2</v>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.35461250000000888</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="2"/>
+        <v>11.346874999997786</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3665,15 +3693,19 @@
         <v>1.863</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{0.6,1.863},</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>6.3708861105791589E-2</v>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.5630297000000084</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="2"/>
+        <v>6.1617166666652619</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3684,7 +3716,7 @@
         <v>1.8520000000000001</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{0.8,1.852},</v>
       </c>
       <c r="E6" t="s">
@@ -3693,9 +3725,13 @@
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>6.3332694990835228E-2</v>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.75407880000000205</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="2"/>
+        <v>5.7401499999997494</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3706,12 +3742,16 @@
         <v>1.841</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{1,1.841},</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>6.2956528875878853E-2</v>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0.94512790000000635</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="2"/>
+        <v>5.4872099999993651</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3722,12 +3762,16 @@
         <v>1.823</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{1.2,1.823},</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>6.2340984324132077E-2</v>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1.2577537000000056</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.8128083333338072</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3738,12 +3782,16 @@
         <v>1.8180000000000001</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{1.4,1.818},</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>6.2169999726424646E-2</v>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.3445942000000031</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
+        <v>3.9575571428569178</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3754,12 +3802,16 @@
         <v>1.806</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{1.6,1.806},</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>6.1759636691926793E-2</v>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1.5530114000000026</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9367874999998431</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3770,12 +3822,16 @@
         <v>1.7949999999999999</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{1.8,1.795},</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>6.1383470576970425E-2</v>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1.7440605000000069</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="2"/>
+        <v>3.1077499999996192</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3786,12 +3842,16 @@
         <v>1.784</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{2,1.784},</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>6.1007304462014064E-2</v>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1.9351096000000041</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2445199999997953</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3802,12 +3862,16 @@
         <v>1.766</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{2.2,1.766},</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>6.0391759910267281E-2</v>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>2.2477354000000034</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.1697909090910543</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3818,12 +3882,16 @@
         <v>1.76</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{2.4,1.76},</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>6.0186578393018358E-2</v>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>2.3519440000000067</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0023333333330506</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3834,12 +3902,16 @@
         <v>1.748</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{2.6,1.748},</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>5.9776215358520506E-2</v>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>2.5603612000000062</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5245692307689949</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3850,12 +3922,16 @@
         <v>1.7370000000000001</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{2.8,1.737},</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>5.9400049243564144E-2</v>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>2.7514103000000034</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7353464285713005</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3866,12 +3942,16 @@
         <v>1.724</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{3,1.724},</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>5.89554892895248E-2</v>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>2.9771956000000053</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.76014666666649089</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3882,12 +3962,16 @@
         <v>1.708</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{3.2,1.708},</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>5.8408338576860994E-2</v>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>3.255085200000007</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.7214125000002134</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3898,12 +3982,16 @@
         <v>1.702</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{3.4,1.702},</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>5.8203157059612071E-2</v>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>3.3592938000000068</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1972411764703865</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3914,12 +4002,16 @@
         <v>1.6910000000000001</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{3.6,1.691},</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>5.782699094465571E-2</v>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>3.550342900000004</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3793638888887811</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3930,12 +4022,16 @@
         <v>1.679</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{3.8,1.679},</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>5.7416627910157857E-2</v>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>3.7587601000000035</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0852605263156929</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3946,12 +4042,16 @@
         <v>1.6679999999999999</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{4,1.668},</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>5.7040461795201489E-2</v>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>3.9498092000000078</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2547699999998052</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3962,12 +4062,16 @@
         <v>1.6519999999999999</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{4.2,1.652},</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>5.6493311082537682E-2</v>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>4.227698800000006</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.65949523809537614</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3978,12 +4082,16 @@
         <v>1.6439999999999999</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{4.4,1.644},</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>5.6219735726205783E-2</v>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>4.3666436000000068</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75809999999985256</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3994,12 +4102,16 @@
         <v>1.631</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{4.6,1.631},</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>5.5775175772166445E-2</v>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>4.5924289000000051</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16458913043466308</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4010,12 +4122,16 @@
         <v>1.621</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{4.8,1.621},</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>5.5433206576751569E-2</v>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>4.7661099000000036</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="2"/>
+        <v>0.70604374999992214</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4026,12 +4142,16 @@
         <v>1.609</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{5,1.609},</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>5.5022843542253716E-2</v>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>4.9745271000000066</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.50945799999986718</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4042,12 +4162,16 @@
         <v>1.8959999999999999</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{0,1.896},</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>6.4837359450660687E-2</v>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>-1.0117599999993843E-2</v>
+      </c>
+      <c r="I28" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4058,12 +4182,16 @@
         <v>1.885</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{0.2,1.885},</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>6.4461193335704325E-2</v>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0.18093150000000691</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="2"/>
+        <v>9.5342499999965522</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4074,12 +4202,16 @@
         <v>1.867</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{0.4,1.867},</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>6.3845648783957543E-2</v>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0.49355730000000619</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="2"/>
+        <v>-23.389325000001541</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4090,12 +4222,16 @@
         <v>1.8580000000000001</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{0.6,1.858},</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>6.3537876508084151E-2</v>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0.64987020000000228</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="2"/>
+        <v>-8.3117000000003856</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4106,12 +4242,16 @@
         <v>1.8460000000000001</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{0.8,1.846},</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>6.3127513473586305E-2</v>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0.85828740000000181</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="2"/>
+        <v>-7.2859250000002209</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -4122,12 +4262,16 @@
         <v>1.8340000000000001</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{1,1.834},</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>6.2717150439088445E-2</v>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>1.0667046000000049</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="2"/>
+        <v>-6.6704600000004888</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -4138,12 +4282,16 @@
         <v>1.827</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{1.2,1.827},</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>6.2477772002298031E-2</v>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>1.188281300000007</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97655833333274811</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -4154,12 +4302,16 @@
         <v>1.8109999999999999</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{1.4,1.811},</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>6.1930621289634225E-2</v>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>1.4661709000000052</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.7264928571432323</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -4170,12 +4322,16 @@
         <v>1.7989999999999999</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{1.6,1.799},</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="0"/>
-        <v>6.1520258255136379E-2</v>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>1.6745881000000047</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.6617562500002876</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -4186,12 +4342,16 @@
         <v>1.788</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{1.8,1.788},</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="0"/>
-        <v>6.1144092140180011E-2</v>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>1.8656372000000054</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="2"/>
+        <v>-3.6465111111114106</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -4202,12 +4362,16 @@
         <v>1.7809999999999999</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{2,1.781},</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="0"/>
-        <v>6.0904713703389596E-2</v>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>1.9872139000000075</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="2"/>
+        <v>0.63930499999962365</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -4218,12 +4382,16 @@
         <v>1.7689999999999999</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{2.2,1.769},</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="0"/>
-        <v>6.0494350668891743E-2</v>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>2.1956311000000071</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="2"/>
+        <v>0.19858636363605117</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -4234,12 +4402,16 @@
         <v>1.7569999999999999</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{2.4,1.757},</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="0"/>
-        <v>6.008398763439389E-2</v>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>2.4040483000000066</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.16867916666694444</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4250,12 +4422,16 @@
         <v>1.7430000000000001</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{2.6,1.743},</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="0"/>
-        <v>5.9605230760813067E-2</v>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>2.6472017000000037</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.815450000000137</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4266,12 +4442,16 @@
         <v>1.734</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{2.8,1.734},</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="0"/>
-        <v>5.9297458484939676E-2</v>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>2.8035146000000069</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.12552142857167961</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -4282,12 +4462,16 @@
         <v>1.718</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{3,1.718},</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="0"/>
-        <v>5.875030777227587E-2</v>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>3.081404200000005</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.7134733333335008</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -4298,12 +4482,16 @@
         <v>1.712</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{3.2,1.712},</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="0"/>
-        <v>5.8545126255026947E-2</v>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>3.1856128000000048</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="2"/>
+        <v>0.44959999999985567</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4314,12 +4502,16 @@
         <v>1.6950000000000001</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{3.4,1.695},</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="0"/>
-        <v>5.7963778622821656E-2</v>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>3.4808705000000053</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.3785441176472175</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4330,12 +4522,16 @@
         <v>1.6839999999999999</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{3.6,1.684},</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="0"/>
-        <v>5.7587612507865288E-2</v>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>3.6719196000000061</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.9977666666668323</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4346,12 +4542,16 @@
         <v>1.671</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{3.8,1.671},</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="0"/>
-        <v>5.714305255382595E-2</v>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>3.8977049000000044</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.5711815789474879</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4362,12 +4562,16 @@
         <v>1.665</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{4,1.665},</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="0"/>
-        <v>5.6937871036577027E-2</v>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>4.0019135000000041</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.7837500000103006E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -4378,12 +4582,16 @@
         <v>1.6539999999999999</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{4.2,1.654},</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="0"/>
-        <v>5.6561704921620659E-2</v>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>4.1929626000000049</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16755714285703113</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -4394,12 +4602,16 @@
         <v>1.6419999999999999</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{4.4,1.642},</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="0"/>
-        <v>5.6151341887122806E-2</v>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>4.4013798000000079</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="2"/>
+        <v>-3.1359090909263442E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -4410,12 +4622,16 @@
         <v>1.631</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{4.6,1.631},</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="0"/>
-        <v>5.5775175772166445E-2</v>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>4.5924289000000051</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16458913043466308</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -4426,12 +4642,16 @@
         <v>1.619</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{4.8,1.619},</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="0"/>
-        <v>5.5364812737668592E-2</v>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>4.8008461000000047</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.7627083333434289E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4445,9 +4665,13 @@
         <f>CONCATENATE("{", A53, ",", B53, "},")</f>
         <v>{5,1.608},</v>
       </c>
-      <c r="I53">
-        <f>B53/29.2424</f>
-        <v>5.4988646622712231E-2</v>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>4.9918952000000019</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16209599999996271</v>
       </c>
     </row>
   </sheetData>
@@ -4458,15 +4682,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -4477,17 +4709,25 @@
         <f>CONCATENATE("{", A2, ",", B2, "},")</f>
         <v>{0,1.273},</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <f>27.0883-(21.309*B2)</f>
+        <v>-3.8056999999998453E-2</v>
+      </c>
+      <c r="F2" t="e">
+        <f t="shared" ref="F2:F11" si="0">((A2-E2)/A2)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.2</v>
       </c>
@@ -4495,11 +4735,19 @@
         <v>1.262</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C13" si="0">CONCATENATE("{", A3, ",", B3, "},")</f>
+        <f t="shared" ref="C3:C13" si="1">CONCATENATE("{", A3, ",", B3, "},")</f>
         <v>{0.2,1.262},</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="2">27.0883-(21.309*B3)</f>
+        <v>0.1963419999999978</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1.8290000000011075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.4</v>
       </c>
@@ -4507,11 +4755,19 @@
         <v>1.2490000000000001</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{0.4,1.249},</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0.47335899999999498</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-18.339749999998737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.6</v>
       </c>
@@ -4519,11 +4775,19 @@
         <v>1.242</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{0.6,1.242},</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0.62252200000000002</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-3.7536666666666738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.8</v>
       </c>
@@ -4531,11 +4795,19 @@
         <v>1.2330000000000001</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{0.8,1.233},</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0.81430299999999534</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-1.7878749999994115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -4543,11 +4815,19 @@
         <v>1.226</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{1,1.226},</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0.96346600000000038</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3.6533999999999622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -4555,11 +4835,19 @@
         <v>1.272</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{0,1.272},</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>-1.6747999999999763E-2</v>
+      </c>
+      <c r="F8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.2</v>
       </c>
@@ -4567,11 +4855,19 @@
         <v>1.2609999999999999</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{0.2,1.261},</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.21765100000000004</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-8.8255000000000141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.4</v>
       </c>
@@ -4579,11 +4875,19 @@
         <v>1.2529999999999999</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{0.4,1.253},</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0.38812300000000022</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2.9692499999999509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.6</v>
       </c>
@@ -4591,11 +4895,19 @@
         <v>1.244</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{0.6,1.244},</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0.57990399999999909</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>3.3493333333334818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.8</v>
       </c>
@@ -4603,11 +4915,19 @@
         <v>1.2330000000000001</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{0.8,1.233},</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0.81430299999999534</v>
+      </c>
+      <c r="F12">
+        <f>((A12-E12)/A12)*100</f>
+        <v>-1.7878749999994115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -4615,17 +4935,25 @@
         <v>1.2250000000000001</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{1,1.225},</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0.98477499999999552</v>
+      </c>
+      <c r="F13">
+        <f>((A13-E13)/A13)*100</f>
+        <v>1.5225000000004485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -4647,7 +4975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Resources/Excel/Celulas de Carga.xlsx
+++ b/Resources/Excel/Celulas de Carga.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20025" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20025" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CelulaComercial5Kg" sheetId="3" r:id="rId1"/>
-    <sheet name="CélulaNCom0,2" sheetId="4" r:id="rId2"/>
-    <sheet name="Torquimetro" sheetId="5" r:id="rId3"/>
+    <sheet name="CelulaComercial5Kg sem offset" sheetId="6" r:id="rId2"/>
+    <sheet name="CélulaNCom0,2" sheetId="4" r:id="rId3"/>
+    <sheet name="CélulaNCom0,2 sem offset" sheetId="7" r:id="rId4"/>
+    <sheet name="Torquimetro" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Tensão (V)</t>
   </si>
@@ -76,12 +78,6 @@
     <t>200 mV</t>
   </si>
   <si>
-    <t>lbf.ft</t>
-  </si>
-  <si>
-    <t>mV</t>
-  </si>
-  <si>
     <t>M pela FT</t>
   </si>
   <si>
@@ -89,6 +85,15 @@
   </si>
   <si>
     <t>m pela FT</t>
+  </si>
+  <si>
+    <t>Torque (lbf.ft)</t>
+  </si>
+  <si>
+    <t>Tensão (mV)</t>
+  </si>
+  <si>
+    <t>Tensão pela FT</t>
   </si>
 </sst>
 </file>
@@ -616,11 +621,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="416233216"/>
-        <c:axId val="416237528"/>
+        <c:axId val="468259128"/>
+        <c:axId val="468254816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="416233216"/>
+        <c:axId val="468259128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,12 +682,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416237528"/>
+        <c:crossAx val="468254816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="416237528"/>
+        <c:axId val="468254816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -739,7 +744,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416233216"/>
+        <c:crossAx val="468259128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -789,6 +794,1280 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.6826771653543295E-2"/>
+                  <c:y val="-0.68572579469232997"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CelulaComercial5Kg sem offset'!$A$2:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CelulaComercial5Kg sem offset'!$B$2:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1.899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.841</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#.##0.000">
+                  <c:v>1.823</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.806</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.784</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.748</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.724</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.708</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.679</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.631</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.621</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.609</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.885</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.867</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.827</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.788</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.7689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.734</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.718</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.712</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.6839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.671</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.665</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.6419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.631</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.619</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6080000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468252464"/>
+        <c:axId val="468255208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468252464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468255208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468255208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468252464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.088713910761155E-2"/>
+                  <c:y val="-0.71959098862642168"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CelulaComercial5Kg sem offset'!$A$2:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CelulaComercial5Kg sem offset'!$C$2:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4000000000000021E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.6000000000000032E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.6999999999999931E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.8000000000000052E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.6000000000000068E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.0999999999999961E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.2999999999999972E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.10400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.11499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.15100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.16199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.17500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.19100000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.19700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.20799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.21999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.23100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.24700000000000011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.25500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.29000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.0000000000001137E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.4000000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.2000000000000028E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.0999999999999925E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5.2999999999999936E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6.4999999999999947E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-7.2000000000000064E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-8.8000000000000078E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.10000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.11099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.1180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.13000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.14200000000000013</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.15599999999999992</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.16500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.18100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.18700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.20399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.21500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.22799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.23399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.24500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.25700000000000012</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.29099999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468258344"/>
+        <c:axId val="468254424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468258344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468254424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468254424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468258344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1014,11 +2293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="413675400"/>
-        <c:axId val="413675008"/>
+        <c:axId val="468249720"/>
+        <c:axId val="468255992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="413675400"/>
+        <c:axId val="468249720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,12 +2354,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413675008"/>
+        <c:crossAx val="468255992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413675008"/>
+        <c:axId val="468255992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,7 +2416,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413675400"/>
+        <c:crossAx val="468249720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1186,7 +2465,803 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.118254000798636"/>
+                  <c:y val="-0.72144320501603898"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CélulaNCom0,2 sem offset'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CélulaNCom0,2 sem offset'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.2729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.272</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.244</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2250000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468256384"/>
+        <c:axId val="468253640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468256384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468253640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468253640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468256384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.0458661417322839E-2"/>
+                  <c:y val="-0.69875911344415287"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CélulaNCom0,2 sem offset'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CélulaNCom0,2 sem offset'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0999999999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.3999999999999799E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0999999999999917E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.9999999999999813E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.6999999999999931E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.9999999999988987E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.2000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8999999999999915E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.9999999999999813E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.7999999999999821E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468250504"/>
+        <c:axId val="468250896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468250504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468250896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468250896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468250504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1376,11 +3451,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="413672656"/>
-        <c:axId val="413677752"/>
+        <c:axId val="468252072"/>
+        <c:axId val="468254032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="413672656"/>
+        <c:axId val="468252072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,12 +3512,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413677752"/>
+        <c:crossAx val="468254032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413677752"/>
+        <c:axId val="468254032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +3574,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413672656"/>
+        <c:crossAx val="468252072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1668,6 +3743,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2701,6 +4936,2070 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3255,6 +7554,73 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>617537</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>312737</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>112712</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>465625</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -3286,7 +7652,74 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>465625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15019</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120894</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>538528</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3587,7 +8020,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3610,10 +8043,10 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4682,288 +9115,1121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
       <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.2729999999999999</v>
-      </c>
-      <c r="C2" t="str">
-        <f>CONCATENATE("{", A2, ",", B2, "},")</f>
-        <v>{0,1.273},</v>
+        <v>1.899</v>
+      </c>
+      <c r="C2">
+        <f>B2-1.899</f>
+        <v>0</v>
       </c>
       <c r="E2">
-        <f>27.0883-(21.309*B2)</f>
-        <v>-3.8056999999998453E-2</v>
+        <f>(-17.3611*C2)-0.0036</f>
+        <v>-3.5999999999999999E-3</v>
       </c>
       <c r="F2" t="e">
-        <f t="shared" ref="F2:F11" si="0">((A2-E2)/A2)*100</f>
+        <f>((A2-E2)/A2)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3">
-        <v>1.262</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C13" si="1">CONCATENATE("{", A3, ",", B3, "},")</f>
-        <v>{0.2,1.262},</v>
+        <v>1.887</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C53" si="0">B3-1.899</f>
+        <v>-1.2000000000000011E-2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E13" si="2">27.0883-(21.309*B3)</f>
-        <v>0.1963419999999978</v>
+        <f t="shared" ref="E3:E53" si="1">(-17.3611*C3)-0.0036</f>
+        <v>0.2047332000000002</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>1.8290000000011075</v>
-      </c>
+        <f t="shared" ref="F3:F53" si="2">((A3-E3)/A3)*100</f>
+        <v>-2.3666000000000937</v>
+      </c>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>0.4</v>
       </c>
       <c r="B4">
-        <v>1.2490000000000001</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v>{0.4,1.249},</v>
+        <v>1.875</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>-2.4000000000000021E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="2"/>
-        <v>0.47335899999999498</v>
+        <f t="shared" si="1"/>
+        <v>0.41306640000000039</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>-18.339749999998737</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>-3.2666000000000919</v>
+      </c>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>0.6</v>
       </c>
       <c r="B5">
-        <v>1.242</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="1"/>
-        <v>{0.6,1.242},</v>
+        <v>1.863</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-3.6000000000000032E-2</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
-        <v>0.62252200000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.6213996000000005</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>-3.7536666666666738</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>-3.5666000000000864</v>
+      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>0.8</v>
       </c>
       <c r="B6">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v>{0.8,1.233},</v>
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-4.6999999999999931E-2</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
-        <v>0.81430299999999534</v>
+        <f t="shared" si="1"/>
+        <v>0.81237169999999881</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>-1.7878749999994115</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>-1.5464624999998455</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1.226</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v>{1,1.226},</v>
+        <v>1.841</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-5.8000000000000052E-2</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
-        <v>0.96346600000000038</v>
+        <f t="shared" si="1"/>
+        <v>1.0033438000000008</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>3.6533999999999622</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>-0.3343800000000785</v>
+      </c>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8">
+        <v>1.2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.823</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-7.6000000000000068E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.3158436000000011</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>-9.6536333333334312</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.4</v>
+      </c>
+      <c r="B9">
+        <v>1.8180000000000001</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-8.0999999999999961E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1.4026490999999992</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-0.18922142857137814</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.6</v>
+      </c>
+      <c r="B10">
+        <v>1.806</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-9.2999999999999972E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.6109822999999994</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>-0.68639374999995839</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.8</v>
+      </c>
+      <c r="B11">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-0.10400000000000009</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.8019544000000016</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>-0.1085777777778654</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1.784</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-0.11499999999999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1.9929264999999998</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.35367500000000884</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B13">
+        <v>1.766</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>2.3054263000000002</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>-4.7921045454545439</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2.4</v>
+      </c>
+      <c r="B14">
+        <v>1.76</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-0.13900000000000001</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>2.4095929000000003</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>-0.39970416666668118</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2.6</v>
+      </c>
+      <c r="B15">
+        <v>1.748</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-0.15100000000000002</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>2.6179261000000005</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>-0.68946538461539952</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2.8</v>
+      </c>
+      <c r="B16">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-0.16199999999999992</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>2.8088981999999985</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>-0.31779285714280842</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>1.724</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-0.17500000000000004</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>3.0345925000000009</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>-1.1530833333333637</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3.2</v>
+      </c>
+      <c r="B18">
+        <v>1.708</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-0.19100000000000006</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>3.3123701000000012</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>-3.5115656250000322</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3.4</v>
+      </c>
+      <c r="B19">
+        <v>1.702</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-0.19700000000000006</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>3.4165367000000013</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>-0.486373529411806</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3.6</v>
+      </c>
+      <c r="B20">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-0.20799999999999996</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>3.6075087999999993</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>-0.20857777777775569</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3.8</v>
+      </c>
+      <c r="B21">
+        <v>1.679</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-0.21999999999999997</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>3.8158419999999995</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>-0.4168947368420971</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-0.23100000000000009</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>4.0068141000000024</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>-0.17035250000005941</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4.2</v>
+      </c>
+      <c r="B23">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-0.24700000000000011</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>4.2845917000000027</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>-2.0140880952381544</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B24">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-0.25500000000000012</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>4.4234805000000028</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>-0.53364772727278309</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B25">
+        <v>1.631</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>4.6491748000000008</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>-1.0690173913043737</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4.8</v>
+      </c>
+      <c r="B26">
+        <v>1.621</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>4.822785800000001</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>-0.47470416666669146</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>1.609</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>-0.29000000000000004</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>5.0311190000000012</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>-0.62238000000002458</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>0</v>
       </c>
-      <c r="B8">
-        <v>1.272</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>{0,1.272},</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>-1.6747999999999763E-2</v>
-      </c>
-      <c r="F8" t="e">
-        <f t="shared" si="0"/>
+      <c r="B28">
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000001137E-3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>4.8483300000001978E-2</v>
+      </c>
+      <c r="F28" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>0.2</v>
       </c>
-      <c r="B9">
-        <v>1.2609999999999999</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>{0.2,1.261},</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>0.21765100000000004</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>-8.8255000000000141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="B29">
+        <v>1.885</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>-1.4000000000000012E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0.23945540000000023</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>-19.727700000000112</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>0.4</v>
       </c>
-      <c r="B10">
-        <v>1.2529999999999999</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v>{0.4,1.253},</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>0.38812300000000022</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>2.9692499999999509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="B30">
+        <v>1.867</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>-3.2000000000000028E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0.55195520000000042</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>-37.988800000000097</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>0.6</v>
       </c>
-      <c r="B11">
-        <v>1.244</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v>{0.6,1.244},</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>0.57990399999999909</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>3.3493333333334818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="B31">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>-4.0999999999999925E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0.7082050999999987</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>-18.034183333333122</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>0.8</v>
       </c>
-      <c r="B12">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v>{0.8,1.233},</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>0.81430299999999534</v>
-      </c>
-      <c r="F12">
-        <f>((A12-E12)/A12)*100</f>
-        <v>-1.7878749999994115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="B32">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>-5.2999999999999936E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0.91653829999999892</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>-14.567287499999859</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>1</v>
       </c>
-      <c r="B13">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v>{1,1.225},</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>0.98477499999999552</v>
-      </c>
-      <c r="F13">
-        <f>((A13-E13)/A13)*100</f>
-        <v>1.5225000000004485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="B33">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>-6.4999999999999947E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>1.1248714999999991</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>-12.487149999999914</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.2</v>
+      </c>
+      <c r="B34">
+        <v>1.827</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>-7.2000000000000064E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>1.246399200000001</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>-3.8666000000000906</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.4</v>
+      </c>
+      <c r="B35">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000078E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>1.5241768000000013</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>-8.8697714285715303</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.6</v>
+      </c>
+      <c r="B36">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>1.7325100000000015</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>-8.2818750000000918</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.8</v>
+      </c>
+      <c r="B37">
+        <v>1.788</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>-0.11099999999999999</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>1.9234820999999998</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>-6.8601166666666504</v>
+      </c>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>-0.1180000000000001</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>2.0450098000000017</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>-2.2504900000000827</v>
+      </c>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B39">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>-0.13000000000000012</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>2.2533430000000019</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>-2.4246818181818948</v>
+      </c>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2.4</v>
+      </c>
+      <c r="B40">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>-0.14200000000000013</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>2.4616762000000021</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>-2.5698416666667576</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2.6</v>
+      </c>
+      <c r="B41">
+        <v>1.7430000000000001</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>-0.15599999999999992</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>2.7047315999999983</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>-4.0281384615383944</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2.8</v>
+      </c>
+      <c r="B42">
+        <v>1.734</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>-0.16500000000000004</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>2.8609815000000007</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>-2.1779107142857468</v>
+      </c>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>1.718</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>-0.18100000000000005</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>3.138759100000001</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>-4.6253033333333669</v>
+      </c>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3.2</v>
+      </c>
+      <c r="B44">
+        <v>1.712</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>-0.18700000000000006</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>3.2429257000000011</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>-1.3414281250000299</v>
+      </c>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3.4</v>
+      </c>
+      <c r="B45">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>-0.20399999999999996</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>3.5380643999999992</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>-4.0607176470588033</v>
+      </c>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3.6</v>
+      </c>
+      <c r="B46">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>-0.21500000000000008</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>3.7290365000000016</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>-3.5843472222222652</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3.8</v>
+      </c>
+      <c r="B47">
+        <v>1.671</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>-0.22799999999999998</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>3.9547307999999997</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>-4.0718631578947324</v>
+      </c>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>1.665</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>-0.23399999999999999</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>4.0588974000000002</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>-1.4724350000000053</v>
+      </c>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4.2</v>
+      </c>
+      <c r="B49">
+        <v>1.6539999999999999</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>-0.24500000000000011</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>4.2498695000000026</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>-1.1873690476191059</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B50">
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>-0.25700000000000012</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>4.4582027000000028</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>-1.3227886363636929</v>
+      </c>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B51">
+        <v>1.631</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>4.6491748000000008</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>-1.0690173913043737</v>
+      </c>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4.8</v>
+      </c>
+      <c r="B52">
+        <v>1.619</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>4.857508000000001</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>-1.1980833333333589</v>
+      </c>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>-0.29099999999999993</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>5.048480099999999</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>-0.96960199999998053</v>
+      </c>
+      <c r="I53" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4973,23 +10239,608 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("{", A2, ",", B2, "},")</f>
+        <v>{0,1.273},</v>
+      </c>
+      <c r="E2">
+        <f>27.0883-(21.309*B2)</f>
+        <v>-3.8056999999998453E-2</v>
+      </c>
+      <c r="F2" t="e">
+        <f t="shared" ref="F2:F11" si="0">((A2-E2)/A2)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>1.262</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C13" si="1">CONCATENATE("{", A3, ",", B3, "},")</f>
+        <v>{0.2,1.262},</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="2">27.0883-(21.309*B3)</f>
+        <v>0.1963419999999978</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1.8290000000011075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="B4">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>{0.4,1.249},</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0.47335899999999498</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-18.339749999998737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="B5">
+        <v>1.242</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>{0.6,1.242},</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0.62252200000000002</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-3.7536666666666738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="B6">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>{0.8,1.233},</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0.81430299999999534</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-1.7878749999994115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1.226</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>{1,1.226},</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0.96346600000000038</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3.6533999999999622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1.272</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>{0,1.272},</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>-1.6747999999999763E-2</v>
+      </c>
+      <c r="F8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="B9">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>{0.2,1.261},</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.21765100000000004</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-8.8255000000000141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="B10">
+        <v>1.2529999999999999</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>{0.4,1.253},</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0.38812300000000022</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2.9692499999999509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="B11">
+        <v>1.244</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>{0.6,1.244},</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0.57990399999999909</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>3.3493333333334818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="B12">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>{0.8,1.233},</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0.81430299999999534</v>
+      </c>
+      <c r="F12">
+        <f>((A12-E12)/A12)*100</f>
+        <v>-1.7878749999994115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>{1,1.225},</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0.98477499999999552</v>
+      </c>
+      <c r="F13">
+        <f>((A13-E13)/A13)*100</f>
+        <v>1.5225000000004485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="C2">
+        <f>B2-1.273</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>(-21.322*C2)-0.03838</f>
+        <v>-3.8379999999999997E-2</v>
+      </c>
+      <c r="F2" t="e">
+        <f t="shared" ref="F2:F11" si="0">((A2-E2)/A2)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>1.262</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C13" si="1">B3-1.273</f>
+        <v>-1.0999999999999899E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="2">(-21.322*C3)-0.03838</f>
+        <v>0.19616199999999784</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1.9190000000010865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="B4">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>-2.3999999999999799E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0.47334799999999577</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-18.336999999998937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="B5">
+        <v>1.242</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>-3.0999999999999917E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0.62260199999999821</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-3.7669999999997059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="B6">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>-3.9999999999999813E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0.814499999999996</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-1.8124999999994951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1.226</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>-4.6999999999999931E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0.96375399999999856</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3.6246000000001444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1.272</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>-9.9999999999988987E-4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>-1.7058000000002346E-2</v>
+      </c>
+      <c r="F8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="B9">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>-1.2000000000000011E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.2174840000000002</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-8.7420000000000968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="B10">
+        <v>1.2529999999999999</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0.3880600000000004</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2.9849999999999044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="B11">
+        <v>1.244</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>-2.8999999999999915E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0.5799579999999982</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>3.3403333333336303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="B12">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>-3.9999999999999813E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0.814499999999996</v>
+      </c>
+      <c r="F12">
+        <f>((A12-E12)/A12)*100</f>
+        <v>-1.8124999999994951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>-4.7999999999999821E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0.98507599999999618</v>
+      </c>
+      <c r="F13">
+        <f>((A13-E13)/A13)*100</f>
+        <v>1.4924000000003823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5006,8 +10857,12 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>-96.38+(0.88*A2)</f>
+        <v>-96.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -5018,8 +10873,12 @@
         <f>CONCATENATE("{", A3, ",", B3, "},")</f>
         <v>{20,-73.4},</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="0">-96.38+(0.88*A3)</f>
+        <v>-78.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
@@ -5027,11 +10886,15 @@
         <v>-65.3</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C7" si="0">CONCATENATE("{", A4, ",", B4, "},")</f>
+        <f t="shared" ref="C4:C7" si="1">CONCATENATE("{", A4, ",", B4, "},")</f>
         <v>{30,-65.3},</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>-69.97999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
@@ -5039,11 +10902,15 @@
         <v>-64.3</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{40,-64.3},</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-61.179999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
@@ -5051,11 +10918,15 @@
         <v>-53.6</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{50,-53.6},</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-52.379999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
       </c>
@@ -5063,8 +10934,12 @@
         <v>-44.7</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{60,-44.7},</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-43.58</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Excel/Celulas de Carga.xlsx
+++ b/Resources/Excel/Celulas de Carga.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20025" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="20025"/>
   </bookViews>
   <sheets>
     <sheet name="CelulaComercial5Kg" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="CélulaNCom0,2" sheetId="4" r:id="rId3"/>
     <sheet name="CélulaNCom0,2 sem offset" sheetId="7" r:id="rId4"/>
     <sheet name="Torquimetro" sheetId="5" r:id="rId5"/>
+    <sheet name="Torquimetro sem offset" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Tensão (V)</t>
   </si>
@@ -95,14 +96,31 @@
   <si>
     <t>Tensão pela FT</t>
   </si>
+  <si>
+    <t>Erro de lineraridade ==&gt;</t>
+  </si>
+  <si>
+    <t>Erro de Linearidade ==&gt;</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Torque pela FT</t>
+  </si>
+  <si>
+    <t>Erro de linearidade ==&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -133,11 +151,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,11 +642,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468259128"/>
-        <c:axId val="468254816"/>
+        <c:axId val="469733136"/>
+        <c:axId val="469733528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468259128"/>
+        <c:axId val="469733136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,12 +703,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468254816"/>
+        <c:crossAx val="469733528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468254816"/>
+        <c:axId val="469733528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,7 +765,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468259128"/>
+        <c:crossAx val="469733136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -808,6 +829,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1258,11 +1280,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468252464"/>
-        <c:axId val="468255208"/>
+        <c:axId val="469732352"/>
+        <c:axId val="469727256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468252464"/>
+        <c:axId val="469732352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,12 +1341,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468255208"/>
+        <c:crossAx val="469727256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468255208"/>
+        <c:axId val="469727256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1403,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468252464"/>
+        <c:crossAx val="469732352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1445,6 +1467,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1895,11 +1918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468258344"/>
-        <c:axId val="468254424"/>
+        <c:axId val="469738624"/>
+        <c:axId val="469726864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468258344"/>
+        <c:axId val="469738624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,12 +1979,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468254424"/>
+        <c:crossAx val="469726864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468254424"/>
+        <c:axId val="469726864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2018,7 +2041,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468258344"/>
+        <c:crossAx val="469738624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2293,11 +2316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468249720"/>
-        <c:axId val="468255992"/>
+        <c:axId val="469735488"/>
+        <c:axId val="469739016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468249720"/>
+        <c:axId val="469735488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2354,12 +2377,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468255992"/>
+        <c:crossAx val="469739016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468255992"/>
+        <c:axId val="469739016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,7 +2439,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468249720"/>
+        <c:crossAx val="469735488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2691,11 +2714,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468256384"/>
-        <c:axId val="468253640"/>
+        <c:axId val="469730784"/>
+        <c:axId val="469728040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468256384"/>
+        <c:axId val="469730784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,12 +2775,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468253640"/>
+        <c:crossAx val="469728040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468253640"/>
+        <c:axId val="469728040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2814,7 +2837,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468256384"/>
+        <c:crossAx val="469730784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3089,11 +3112,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468250504"/>
-        <c:axId val="468250896"/>
+        <c:axId val="469728432"/>
+        <c:axId val="469728824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468250504"/>
+        <c:axId val="469728432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3150,12 +3173,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468250896"/>
+        <c:crossAx val="469728824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468250896"/>
+        <c:axId val="469728824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,7 +3235,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468250504"/>
+        <c:crossAx val="469728432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3451,11 +3474,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="468252072"/>
-        <c:axId val="468254032"/>
+        <c:axId val="469734312"/>
+        <c:axId val="469729216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="468252072"/>
+        <c:axId val="469734312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3512,12 +3535,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468254032"/>
+        <c:crossAx val="469729216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468254032"/>
+        <c:axId val="469729216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3574,7 +3597,731 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468252072"/>
+        <c:crossAx val="469734312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12982370953630801"/>
+                  <c:y val="-0.35939049285505997"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Torquimetro sem offset'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Torquimetro sem offset'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-101.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-65.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-64.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-53.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-44.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="475814080"/>
+        <c:axId val="475815648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="475814080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475815648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="475815648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475814080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.26570428696413E-2"/>
+                  <c:y val="-0.21035250801983085"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Torquimetro sem offset'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Torquimetro sem offset'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.399999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="475823096"/>
+        <c:axId val="475826232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="475823096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475826232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="475826232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475823096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3903,6 +4650,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7515,20 +8342,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>617537</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>36512</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350837</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>46037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>312737</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>112712</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>74612</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>122237</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7621,16 +9480,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>465625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>129319</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>260472</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>160825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15019</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>549153</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44327</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7656,14 +9515,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>465625</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165222</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>129319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>160825</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>453902</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>15019</xdr:rowOff>
     </xdr:to>
@@ -7688,16 +9547,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>120894</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>175845</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>326047</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>538528</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>61545</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>150201</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7746,6 +9605,73 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>125412</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>446087</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8017,10 +9943,1524 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.899</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("{", A2, ",", B2, "},")</f>
+        <v>{0,1.899},</v>
+      </c>
+      <c r="H2">
+        <f>32.9198-(17.3681*B2)</f>
+        <v>-6.2221899999997277E-2</v>
+      </c>
+      <c r="I2" s="3" t="e">
+        <f>((A2-H2)/A2)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K2">
+        <f>(-0.0576*A2)+1.8954</f>
+        <v>1.8954</v>
+      </c>
+      <c r="L2">
+        <f>K2/29.2424</f>
+        <v>6.4816841298935793E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>1.887</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C52" si="0">CONCATENATE("{", A3, ",", B3, "},")</f>
+        <v>{0.2,1.887},</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H53" si="1">32.9198-(17.3681*B3)</f>
+        <v>0.14619530000000225</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I53" si="2">((A3-H3)/A3)*100</f>
+        <v>26.902349999998883</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K53" si="3">(-0.0576*A3)+1.8954</f>
+        <v>1.88388</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L53" si="4">K3/29.2424</f>
+        <v>6.4422892785817851E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.4</v>
+      </c>
+      <c r="B4">
+        <v>1.875</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>{0.4,1.875},</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.35461250000000888</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="2"/>
+        <v>11.346874999997786</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>1.87236</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>6.4028944272699923E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.6</v>
+      </c>
+      <c r="B5">
+        <v>1.863</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>{0.6,1.863},</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.5630297000000084</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="2"/>
+        <v>6.1617166666652619</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>1.86084</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>6.363499575958198E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.8</v>
+      </c>
+      <c r="B6">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>{0.8,1.852},</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.75407880000000205</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="2"/>
+        <v>5.7401499999997494</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>1.8493200000000001</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>6.3241047246464038E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1.841</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,1.841},</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0.94512790000000635</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="2"/>
+        <v>5.4872099999993651</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>1.8377999999999999</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>6.2847098733346096E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.823</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>{1.2,1.823},</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1.2577537000000056</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.8128083333338072</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>1.8262799999999999</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>6.2453150220228161E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.4</v>
+      </c>
+      <c r="B9">
+        <v>1.8180000000000001</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>{1.4,1.818},</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.3445942000000031</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
+        <v>3.9575571428569178</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>1.8147599999999999</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>6.2059201707110219E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.6</v>
+      </c>
+      <c r="B10">
+        <v>1.806</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>{1.6,1.806},</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1.5530114000000026</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9367874999998431</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>1.80324</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>6.1665253193992284E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.8</v>
+      </c>
+      <c r="B11">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>{1.8,1.795},</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1.7440605000000069</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="2"/>
+        <v>3.1077499999996192</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>1.79172</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>6.1271304680874349E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1.784</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>{2,1.784},</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1.9351096000000041</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2445199999997953</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>1.7802</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>6.0877356167756407E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B13">
+        <v>1.766</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>{2.2,1.766},</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>2.2477354000000034</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.1697909090910543</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>1.76868</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>6.0483407654638471E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2.4</v>
+      </c>
+      <c r="B14">
+        <v>1.76</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>{2.4,1.76},</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>2.3519440000000067</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0023333333330506</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>1.7571600000000001</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>6.0089459141520536E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2.6</v>
+      </c>
+      <c r="B15">
+        <v>1.748</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>{2.6,1.748},</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>2.5603612000000062</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5245692307689949</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>1.7456399999999999</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>5.9695510628402587E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2.8</v>
+      </c>
+      <c r="B16">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>{2.8,1.737},</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>2.7514103000000034</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7353464285713005</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>1.7341199999999999</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>5.9301562115284652E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>1.724</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>{3,1.724},</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>2.9771956000000053</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.76014666666649089</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>1.7225999999999999</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>5.8907613602166717E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3.2</v>
+      </c>
+      <c r="B18">
+        <v>1.708</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>{3.2,1.708},</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>3.255085200000007</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.7214125000002134</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>1.7110799999999999</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>5.8513665089048775E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3.4</v>
+      </c>
+      <c r="B19">
+        <v>1.702</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>{3.4,1.702},</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>3.3592938000000068</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1972411764703865</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>1.69956</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>5.811971657593084E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3.6</v>
+      </c>
+      <c r="B20">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>{3.6,1.691},</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>3.550342900000004</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3793638888887811</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>1.68804</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>5.7725768062812904E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3.8</v>
+      </c>
+      <c r="B21">
+        <v>1.679</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>{3.8,1.679},</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>3.7587601000000035</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0852605263156929</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>1.67652</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>5.7331819549694962E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>{4,1.668},</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>3.9498092000000078</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2547699999998052</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>1.665</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>5.6937871036577027E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4.2</v>
+      </c>
+      <c r="B23">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>{4.2,1.652},</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>4.227698800000006</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.65949523809537614</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>1.6534800000000001</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>5.6543922523459092E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B24">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>{4.4,1.644},</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>4.3666436000000068</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75809999999985256</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>1.6419600000000001</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>5.614997401034115E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B25">
+        <v>1.631</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>{4.6,1.631},</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>4.5924289000000051</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16458913043466308</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>1.6304400000000001</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>5.5756025497223215E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4.8</v>
+      </c>
+      <c r="B26">
+        <v>1.621</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>{4.8,1.621},</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>4.7661099000000036</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="2"/>
+        <v>0.70604374999992214</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>1.6189199999999999</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>5.5362076984105266E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>1.609</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>{5,1.609},</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>4.9745271000000066</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.50945799999986718</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>1.6073999999999999</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>5.4968128470987331E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>{0,1.896},</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>-1.0117599999993843E-2</v>
+      </c>
+      <c r="I28" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>1.8954</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>6.4816841298935793E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.2</v>
+      </c>
+      <c r="B29">
+        <v>1.885</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>{0.2,1.885},</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0.18093150000000691</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="2"/>
+        <v>9.5342499999965522</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>1.88388</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>6.4422892785817851E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.4</v>
+      </c>
+      <c r="B30">
+        <v>1.867</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>{0.4,1.867},</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0.49355730000000619</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="2"/>
+        <v>-23.389325000001541</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>1.87236</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>6.4028944272699923E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.6</v>
+      </c>
+      <c r="B31">
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>{0.6,1.858},</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0.64987020000000228</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="2"/>
+        <v>-8.3117000000003856</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>1.86084</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>6.363499575958198E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.8</v>
+      </c>
+      <c r="B32">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>{0.8,1.846},</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0.85828740000000181</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="2"/>
+        <v>-7.2859250000002209</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>1.8493200000000001</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>6.3241047246464038E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>{1,1.834},</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>1.0667046000000049</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="2"/>
+        <v>-6.6704600000004888</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>1.8377999999999999</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>6.2847098733346096E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.2</v>
+      </c>
+      <c r="B34">
+        <v>1.827</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>{1.2,1.827},</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>1.188281300000007</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97655833333274811</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>1.8262799999999999</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>6.2453150220228161E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.4</v>
+      </c>
+      <c r="B35">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>{1.4,1.811},</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>1.4661709000000052</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.7264928571432323</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>1.8147599999999999</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>6.2059201707110219E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.6</v>
+      </c>
+      <c r="B36">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>{1.6,1.799},</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>1.6745881000000047</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.6617562500002876</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>1.80324</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>6.1665253193992284E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.8</v>
+      </c>
+      <c r="B37">
+        <v>1.788</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>{1.8,1.788},</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>1.8656372000000054</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="2"/>
+        <v>-3.6465111111114106</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>1.79172</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>6.1271304680874349E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>{2,1.781},</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>1.9872139000000075</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="2"/>
+        <v>0.63930499999962365</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>1.7802</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>6.0877356167756407E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B39">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>{2.2,1.769},</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>2.1956311000000071</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="2"/>
+        <v>0.19858636363605117</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>1.76868</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>6.0483407654638471E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2.4</v>
+      </c>
+      <c r="B40">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>{2.4,1.757},</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>2.4040483000000066</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.16867916666694444</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>1.7571600000000001</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>6.0089459141520536E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2.6</v>
+      </c>
+      <c r="B41">
+        <v>1.7430000000000001</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>{2.6,1.743},</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>2.6472017000000037</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.815450000000137</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>1.7456399999999999</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>5.9695510628402587E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2.8</v>
+      </c>
+      <c r="B42">
+        <v>1.734</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>{2.8,1.734},</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>2.8035146000000069</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.12552142857167961</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>1.7341199999999999</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>5.9301562115284652E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>1.718</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>{3,1.718},</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>3.081404200000005</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.7134733333335008</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>1.7225999999999999</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>5.8907613602166717E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3.2</v>
+      </c>
+      <c r="B44">
+        <v>1.712</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>{3.2,1.712},</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>3.1856128000000048</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="2"/>
+        <v>0.44959999999985567</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>1.7110799999999999</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>5.8513665089048775E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3.4</v>
+      </c>
+      <c r="B45">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>{3.4,1.695},</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>3.4808705000000053</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.3785441176472175</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>1.69956</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>5.811971657593084E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3.6</v>
+      </c>
+      <c r="B46">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>{3.6,1.684},</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>3.6719196000000061</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.9977666666668323</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>1.68804</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>5.7725768062812904E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3.8</v>
+      </c>
+      <c r="B47">
+        <v>1.671</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>{3.8,1.671},</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>3.8977049000000044</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.5711815789474879</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>1.67652</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>5.7331819549694962E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>1.665</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>{4,1.665},</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>4.0019135000000041</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.7837500000103006E-2</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>1.665</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>5.6937871036577027E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4.2</v>
+      </c>
+      <c r="B49">
+        <v>1.6539999999999999</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>{4.2,1.654},</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>4.1929626000000049</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16755714285703113</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>1.6534800000000001</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="4"/>
+        <v>5.6543922523459092E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B50">
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>{4.4,1.642},</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>4.4013798000000079</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="2"/>
+        <v>-3.1359090909263442E-2</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>1.6419600000000001</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>5.614997401034115E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B51">
+        <v>1.631</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>{4.6,1.631},</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>4.5924289000000051</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16458913043466308</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>1.6304400000000001</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>5.5756025497223215E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4.8</v>
+      </c>
+      <c r="B52">
+        <v>1.619</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>{4.8,1.619},</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>4.8008461000000047</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.7627083333434289E-2</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>1.6189199999999999</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>5.5362076984105266E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="C53" t="str">
+        <f>CONCATENATE("{", A53, ",", B53, "},")</f>
+        <v>{5,1.608},</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>4.9918952000000019</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="2"/>
+        <v>0.16209599999996271</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>1.6073999999999999</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="4"/>
+        <v>5.4968128470987331E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8036,17 +11476,8 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -8056,18 +11487,23 @@
       <c r="B2">
         <v>1.899</v>
       </c>
-      <c r="C2" t="str">
-        <f>CONCATENATE("{", A2, ",", B2, "},")</f>
-        <v>{0,1.899},</v>
-      </c>
-      <c r="H2">
-        <f>32.9198-(17.3681*B2)</f>
-        <v>-6.2221899999997277E-2</v>
-      </c>
-      <c r="I2" s="3" t="e">
-        <f>((A2-H2)/A2)*100</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C2">
+        <f>B2-1.899</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>(-17.3611*C2)-0.0036</f>
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="F2">
+        <f>((A2-E2)/$A$27)*100</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G2">
+        <f>ABS(F2)</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -8076,21 +11512,23 @@
       <c r="B3">
         <v>1.887</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C52" si="0">CONCATENATE("{", A3, ",", B3, "},")</f>
-        <v>{0.2,1.887},</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H53" si="1">32.9198-(17.3681*B3)</f>
-        <v>0.14619530000000225</v>
-      </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I53" si="2">((A3-H3)/A3)*100</f>
-        <v>26.902349999998883</v>
-      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C53" si="0">B3-1.899</f>
+        <v>-1.2000000000000011E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E53" si="1">(-17.3611*C3)-0.0036</f>
+        <v>0.2047332000000002</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F53" si="2">((A3-E3)/$A$27)*100</f>
+        <v>-9.4664000000003745E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G53" si="3">ABS(F3)</f>
+        <v>9.4664000000003745E-2</v>
+      </c>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -8099,24 +11537,23 @@
       <c r="B4">
         <v>1.875</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
         <f t="shared" si="0"/>
-        <v>{0.4,1.875},</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4">
+        <v>-2.4000000000000021E-2</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="1"/>
-        <v>0.35461250000000888</v>
-      </c>
-      <c r="I4" s="3">
+        <v>0.41306640000000039</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="2"/>
-        <v>11.346874999997786</v>
-      </c>
+        <v>-0.26132800000000733</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>0.26132800000000733</v>
+      </c>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -8125,21 +11562,23 @@
       <c r="B5">
         <v>1.863</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
         <f t="shared" si="0"/>
-        <v>{0.6,1.863},</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5">
+        <v>-3.6000000000000032E-2</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.5630297000000084</v>
-      </c>
-      <c r="I5" s="3">
+        <v>0.6213996000000005</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="2"/>
-        <v>6.1617166666652619</v>
-      </c>
+        <v>-0.42799200000001036</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0.42799200000001036</v>
+      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -8148,24 +11587,23 @@
       <c r="B6">
         <v>1.8520000000000001</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6">
         <f t="shared" si="0"/>
-        <v>{0.8,1.852},</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6">
+        <v>-4.6999999999999931E-2</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="1"/>
-        <v>0.75407880000000205</v>
-      </c>
-      <c r="I6" s="3">
+        <v>0.81237169999999881</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="2"/>
-        <v>5.7401499999997494</v>
-      </c>
+        <v>-0.24743399999997531</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0.24743399999997531</v>
+      </c>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -8174,18 +11612,23 @@
       <c r="B7">
         <v>1.841</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7">
         <f t="shared" si="0"/>
-        <v>{1,1.841},</v>
-      </c>
-      <c r="H7">
+        <v>-5.8000000000000052E-2</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="1"/>
-        <v>0.94512790000000635</v>
-      </c>
-      <c r="I7" s="3">
+        <v>1.0033438000000008</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="2"/>
-        <v>5.4872099999993651</v>
-      </c>
+        <v>-6.6876000000015701E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>6.6876000000015701E-2</v>
+      </c>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -8194,18 +11637,23 @@
       <c r="B8" s="1">
         <v>1.823</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8">
         <f t="shared" si="0"/>
-        <v>{1.2,1.823},</v>
-      </c>
-      <c r="H8">
+        <v>-7.6000000000000068E-2</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="1"/>
-        <v>1.2577537000000056</v>
-      </c>
-      <c r="I8" s="3">
+        <v>1.3158436000000011</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="2"/>
-        <v>-4.8128083333338072</v>
-      </c>
+        <v>-2.3168720000000231</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>2.3168720000000231</v>
+      </c>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -8214,18 +11662,23 @@
       <c r="B9">
         <v>1.8180000000000001</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9">
         <f t="shared" si="0"/>
-        <v>{1.4,1.818},</v>
-      </c>
-      <c r="H9">
+        <v>-8.0999999999999961E-2</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
-        <v>1.3445942000000031</v>
-      </c>
-      <c r="I9" s="3">
+        <v>1.4026490999999992</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="2"/>
-        <v>3.9575571428569178</v>
-      </c>
+        <v>-5.2981999999985867E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>5.2981999999985867E-2</v>
+      </c>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -8234,18 +11687,23 @@
       <c r="B10">
         <v>1.806</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10">
         <f t="shared" si="0"/>
-        <v>{1.6,1.806},</v>
-      </c>
-      <c r="H10">
+        <v>-9.2999999999999972E-2</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="1"/>
-        <v>1.5530114000000026</v>
-      </c>
-      <c r="I10" s="3">
+        <v>1.6109822999999994</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="2"/>
-        <v>2.9367874999998431</v>
-      </c>
+        <v>-0.21964599999998669</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0.21964599999998669</v>
+      </c>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -8254,18 +11712,23 @@
       <c r="B11">
         <v>1.7949999999999999</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11">
         <f t="shared" si="0"/>
-        <v>{1.8,1.795},</v>
-      </c>
-      <c r="H11">
+        <v>-0.10400000000000009</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="1"/>
-        <v>1.7440605000000069</v>
-      </c>
-      <c r="I11" s="3">
+        <v>1.8019544000000016</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="2"/>
-        <v>3.1077499999996192</v>
-      </c>
+        <v>-3.9088000000031542E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>3.9088000000031542E-2</v>
+      </c>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -8274,18 +11737,23 @@
       <c r="B12">
         <v>1.784</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12">
         <f t="shared" si="0"/>
-        <v>{2,1.784},</v>
-      </c>
-      <c r="H12">
+        <v>-0.11499999999999999</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="1"/>
-        <v>1.9351096000000041</v>
-      </c>
-      <c r="I12" s="3">
+        <v>1.9929264999999998</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="2"/>
-        <v>3.2445199999997953</v>
-      </c>
+        <v>0.14147000000000354</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0.14147000000000354</v>
+      </c>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -8294,18 +11762,23 @@
       <c r="B13">
         <v>1.766</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13">
         <f t="shared" si="0"/>
-        <v>{2.2,1.766},</v>
-      </c>
-      <c r="H13">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
-        <v>2.2477354000000034</v>
-      </c>
-      <c r="I13" s="3">
+        <v>2.3054263000000002</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="2"/>
-        <v>-2.1697909090910543</v>
-      </c>
+        <v>-2.1085259999999995</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>2.1085259999999995</v>
+      </c>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -8314,18 +11787,23 @@
       <c r="B14">
         <v>1.76</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14">
         <f t="shared" si="0"/>
-        <v>{2.4,1.76},</v>
-      </c>
-      <c r="H14">
+        <v>-0.13900000000000001</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="1"/>
-        <v>2.3519440000000067</v>
-      </c>
-      <c r="I14" s="3">
+        <v>2.4095929000000003</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="2"/>
-        <v>2.0023333333330506</v>
-      </c>
+        <v>-0.19185800000000697</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0.19185800000000697</v>
+      </c>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -8334,18 +11812,23 @@
       <c r="B15">
         <v>1.748</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15">
         <f t="shared" si="0"/>
-        <v>{2.6,1.748},</v>
-      </c>
-      <c r="H15">
+        <v>-0.15100000000000002</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="1"/>
-        <v>2.5603612000000062</v>
-      </c>
-      <c r="I15" s="3">
+        <v>2.6179261000000005</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="2"/>
-        <v>1.5245692307689949</v>
-      </c>
+        <v>-0.35852200000000778</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>0.35852200000000778</v>
+      </c>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -8354,18 +11837,23 @@
       <c r="B16">
         <v>1.7370000000000001</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16">
         <f t="shared" si="0"/>
-        <v>{2.8,1.737},</v>
-      </c>
-      <c r="H16">
+        <v>-0.16199999999999992</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="1"/>
-        <v>2.7514103000000034</v>
-      </c>
-      <c r="I16" s="3">
+        <v>2.8088981999999985</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="2"/>
-        <v>1.7353464285713005</v>
-      </c>
+        <v>-0.1779639999999727</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>0.1779639999999727</v>
+      </c>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -8374,18 +11862,23 @@
       <c r="B17">
         <v>1.724</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17">
         <f t="shared" si="0"/>
-        <v>{3,1.724},</v>
-      </c>
-      <c r="H17">
+        <v>-0.17500000000000004</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="1"/>
-        <v>2.9771956000000053</v>
-      </c>
-      <c r="I17" s="3">
+        <v>3.0345925000000009</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.76014666666649089</v>
-      </c>
+        <v>-0.69185000000001828</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0.69185000000001828</v>
+      </c>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -8394,18 +11887,23 @@
       <c r="B18">
         <v>1.708</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18">
         <f t="shared" si="0"/>
-        <v>{3.2,1.708},</v>
-      </c>
-      <c r="H18">
+        <v>-0.19100000000000006</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="1"/>
-        <v>3.255085200000007</v>
-      </c>
-      <c r="I18" s="3">
+        <v>3.3123701000000012</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="2"/>
-        <v>-1.7214125000002134</v>
-      </c>
+        <v>-2.2474020000000205</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>2.2474020000000205</v>
+      </c>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -8414,18 +11912,23 @@
       <c r="B19">
         <v>1.702</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19">
         <f t="shared" si="0"/>
-        <v>{3.4,1.702},</v>
-      </c>
-      <c r="H19">
+        <v>-0.19700000000000006</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="1"/>
-        <v>3.3592938000000068</v>
-      </c>
-      <c r="I19" s="3">
+        <v>3.4165367000000013</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="2"/>
-        <v>1.1972411764703865</v>
-      </c>
+        <v>-0.33073400000002806</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0.33073400000002806</v>
+      </c>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -8434,18 +11937,23 @@
       <c r="B20">
         <v>1.6910000000000001</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20">
         <f t="shared" si="0"/>
-        <v>{3.6,1.691},</v>
-      </c>
-      <c r="H20">
+        <v>-0.20799999999999996</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="1"/>
-        <v>3.550342900000004</v>
-      </c>
-      <c r="I20" s="3">
+        <v>3.6075087999999993</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="2"/>
-        <v>1.3793638888887811</v>
-      </c>
+        <v>-0.1501759999999841</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>0.1501759999999841</v>
+      </c>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -8454,18 +11962,23 @@
       <c r="B21">
         <v>1.679</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21">
         <f t="shared" si="0"/>
-        <v>{3.8,1.679},</v>
-      </c>
-      <c r="H21">
+        <v>-0.21999999999999997</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="1"/>
-        <v>3.7587601000000035</v>
-      </c>
-      <c r="I21" s="3">
+        <v>3.8158419999999995</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="2"/>
-        <v>1.0852605263156929</v>
-      </c>
+        <v>-0.31683999999999379</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>0.31683999999999379</v>
+      </c>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -8474,18 +11987,23 @@
       <c r="B22">
         <v>1.6679999999999999</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22">
         <f t="shared" si="0"/>
-        <v>{4,1.668},</v>
-      </c>
-      <c r="H22">
+        <v>-0.23100000000000009</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="1"/>
-        <v>3.9498092000000078</v>
-      </c>
-      <c r="I22" s="3">
+        <v>4.0068141000000024</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="2"/>
-        <v>1.2547699999998052</v>
-      </c>
+        <v>-0.13628200000004753</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>0.13628200000004753</v>
+      </c>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -8494,18 +12012,23 @@
       <c r="B23">
         <v>1.6519999999999999</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23">
         <f t="shared" si="0"/>
-        <v>{4.2,1.652},</v>
-      </c>
-      <c r="H23">
+        <v>-0.24700000000000011</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="1"/>
-        <v>4.227698800000006</v>
-      </c>
-      <c r="I23" s="3">
+        <v>4.2845917000000027</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="2"/>
-        <v>-0.65949523809537614</v>
-      </c>
+        <v>-1.6918340000000496</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>1.6918340000000496</v>
+      </c>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -8514,18 +12037,23 @@
       <c r="B24">
         <v>1.6439999999999999</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24">
         <f t="shared" si="0"/>
-        <v>{4.4,1.644},</v>
-      </c>
-      <c r="H24">
+        <v>-0.25500000000000012</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="1"/>
-        <v>4.3666436000000068</v>
-      </c>
-      <c r="I24" s="3">
+        <v>4.4234805000000028</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="2"/>
-        <v>0.75809999999985256</v>
-      </c>
+        <v>-0.46961000000004915</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0.46961000000004915</v>
+      </c>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -8534,18 +12062,23 @@
       <c r="B25">
         <v>1.631</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25">
         <f t="shared" si="0"/>
-        <v>{4.6,1.631},</v>
-      </c>
-      <c r="H25">
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="1"/>
-        <v>4.5924289000000051</v>
-      </c>
-      <c r="I25" s="3">
+        <v>4.6491748000000008</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="2"/>
-        <v>0.16458913043466308</v>
-      </c>
+        <v>-0.98349600000002357</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0.98349600000002357</v>
+      </c>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -8554,18 +12087,23 @@
       <c r="B26">
         <v>1.621</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26">
         <f t="shared" si="0"/>
-        <v>{4.8,1.621},</v>
-      </c>
-      <c r="H26">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="1"/>
-        <v>4.7661099000000036</v>
-      </c>
-      <c r="I26" s="3">
+        <v>4.822785800000001</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="2"/>
-        <v>0.70604374999992214</v>
-      </c>
+        <v>-0.45571600000002377</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0.45571600000002377</v>
+      </c>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -8574,18 +12112,23 @@
       <c r="B27">
         <v>1.609</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27">
         <f t="shared" si="0"/>
-        <v>{5,1.609},</v>
-      </c>
-      <c r="H27">
+        <v>-0.29000000000000004</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="1"/>
-        <v>4.9745271000000066</v>
-      </c>
-      <c r="I27" s="3">
+        <v>5.0311190000000012</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="2"/>
-        <v>0.50945799999986718</v>
-      </c>
+        <v>-0.62238000000002458</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>0.62238000000002458</v>
+      </c>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -8594,18 +12137,23 @@
       <c r="B28">
         <v>1.8959999999999999</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28">
         <f t="shared" si="0"/>
-        <v>{0,1.896},</v>
-      </c>
-      <c r="H28">
+        <v>-3.0000000000001137E-3</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="1"/>
-        <v>-1.0117599999993843E-2</v>
-      </c>
-      <c r="I28" s="3" t="e">
+        <v>4.8483300000001978E-2</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>-0.96966600000003944</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0.96966600000003944</v>
+      </c>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -8614,18 +12162,23 @@
       <c r="B29">
         <v>1.885</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29">
         <f t="shared" si="0"/>
-        <v>{0.2,1.885},</v>
-      </c>
-      <c r="H29">
+        <v>-1.4000000000000012E-2</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="1"/>
-        <v>0.18093150000000691</v>
-      </c>
-      <c r="I29" s="3">
+        <v>0.23945540000000023</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="2"/>
-        <v>9.5342499999965522</v>
-      </c>
+        <v>-0.78910800000000447</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0.78910800000000447</v>
+      </c>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -8634,18 +12187,23 @@
       <c r="B30">
         <v>1.867</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30">
         <f t="shared" si="0"/>
-        <v>{0.4,1.867},</v>
-      </c>
-      <c r="H30">
+        <v>-3.2000000000000028E-2</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="1"/>
-        <v>0.49355730000000619</v>
-      </c>
-      <c r="I30" s="3">
+        <v>0.55195520000000042</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="2"/>
-        <v>-23.389325000001541</v>
-      </c>
+        <v>-3.039104000000008</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>3.039104000000008</v>
+      </c>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -8654,18 +12212,23 @@
       <c r="B31">
         <v>1.8580000000000001</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31">
         <f t="shared" si="0"/>
-        <v>{0.6,1.858},</v>
-      </c>
-      <c r="H31">
+        <v>-4.0999999999999925E-2</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="1"/>
-        <v>0.64987020000000228</v>
-      </c>
-      <c r="I31" s="3">
+        <v>0.7082050999999987</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="2"/>
-        <v>-8.3117000000003856</v>
-      </c>
+        <v>-2.1641019999999744</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>2.1641019999999744</v>
+      </c>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -8674,18 +12237,23 @@
       <c r="B32">
         <v>1.8460000000000001</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32">
         <f t="shared" si="0"/>
-        <v>{0.8,1.846},</v>
-      </c>
-      <c r="H32">
+        <v>-5.2999999999999936E-2</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="1"/>
-        <v>0.85828740000000181</v>
-      </c>
-      <c r="I32" s="3">
+        <v>0.91653829999999892</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="2"/>
-        <v>-7.2859250000002209</v>
-      </c>
+        <v>-2.3307659999999775</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>2.3307659999999775</v>
+      </c>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -8694,18 +12262,23 @@
       <c r="B33">
         <v>1.8340000000000001</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33">
         <f t="shared" si="0"/>
-        <v>{1,1.834},</v>
-      </c>
-      <c r="H33">
+        <v>-6.4999999999999947E-2</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="1"/>
-        <v>1.0667046000000049</v>
-      </c>
-      <c r="I33" s="3">
+        <v>1.1248714999999991</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="2"/>
-        <v>-6.6704600000004888</v>
-      </c>
+        <v>-2.4974299999999827</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>2.4974299999999827</v>
+      </c>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -8714,18 +12287,23 @@
       <c r="B34">
         <v>1.827</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34">
         <f t="shared" si="0"/>
-        <v>{1.2,1.827},</v>
-      </c>
-      <c r="H34">
+        <v>-7.2000000000000064E-2</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="1"/>
-        <v>1.188281300000007</v>
-      </c>
-      <c r="I34" s="3">
+        <v>1.246399200000001</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="2"/>
-        <v>0.97655833333274811</v>
-      </c>
+        <v>-0.92798400000002157</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>0.92798400000002157</v>
+      </c>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -8734,18 +12312,23 @@
       <c r="B35">
         <v>1.8109999999999999</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35">
         <f t="shared" si="0"/>
-        <v>{1.4,1.811},</v>
-      </c>
-      <c r="H35">
+        <v>-8.8000000000000078E-2</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="1"/>
-        <v>1.4661709000000052</v>
-      </c>
-      <c r="I35" s="3">
+        <v>1.5241768000000013</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="2"/>
-        <v>-4.7264928571432323</v>
-      </c>
+        <v>-2.4835360000000284</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>2.4835360000000284</v>
+      </c>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -8754,18 +12337,23 @@
       <c r="B36">
         <v>1.7989999999999999</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36">
         <f t="shared" si="0"/>
-        <v>{1.6,1.799},</v>
-      </c>
-      <c r="H36">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="1"/>
-        <v>1.6745881000000047</v>
-      </c>
-      <c r="I36" s="3">
+        <v>1.7325100000000015</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="2"/>
-        <v>-4.6617562500002876</v>
-      </c>
+        <v>-2.6502000000000292</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>2.6502000000000292</v>
+      </c>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -8774,18 +12362,23 @@
       <c r="B37">
         <v>1.788</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37">
         <f t="shared" si="0"/>
-        <v>{1.8,1.788},</v>
-      </c>
-      <c r="H37">
+        <v>-0.11099999999999999</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="1"/>
-        <v>1.8656372000000054</v>
-      </c>
-      <c r="I37" s="3">
+        <v>1.9234820999999998</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="2"/>
-        <v>-3.6465111111114106</v>
-      </c>
+        <v>-2.4696419999999941</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>2.4696419999999941</v>
+      </c>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -8794,18 +12387,23 @@
       <c r="B38">
         <v>1.7809999999999999</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38">
         <f t="shared" si="0"/>
-        <v>{2,1.781},</v>
-      </c>
-      <c r="H38">
+        <v>-0.1180000000000001</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="1"/>
-        <v>1.9872139000000075</v>
-      </c>
-      <c r="I38" s="3">
+        <v>2.0450098000000017</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="2"/>
-        <v>0.63930499999962365</v>
-      </c>
+        <v>-0.90019600000003308</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0.90019600000003308</v>
+      </c>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -8814,18 +12412,23 @@
       <c r="B39">
         <v>1.7689999999999999</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39">
         <f t="shared" si="0"/>
-        <v>{2.2,1.769},</v>
-      </c>
-      <c r="H39">
+        <v>-0.13000000000000012</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="1"/>
-        <v>2.1956311000000071</v>
-      </c>
-      <c r="I39" s="3">
+        <v>2.2533430000000019</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="2"/>
-        <v>0.19858636363605117</v>
-      </c>
+        <v>-1.0668600000000339</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>1.0668600000000339</v>
+      </c>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -8834,18 +12437,23 @@
       <c r="B40">
         <v>1.7569999999999999</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40">
         <f t="shared" si="0"/>
-        <v>{2.4,1.757},</v>
-      </c>
-      <c r="H40">
+        <v>-0.14200000000000013</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="1"/>
-        <v>2.4040483000000066</v>
-      </c>
-      <c r="I40" s="3">
+        <v>2.4616762000000021</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="2"/>
-        <v>-0.16867916666694444</v>
-      </c>
+        <v>-1.2335240000000436</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>1.2335240000000436</v>
+      </c>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -8854,18 +12462,23 @@
       <c r="B41">
         <v>1.7430000000000001</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41">
         <f t="shared" si="0"/>
-        <v>{2.6,1.743},</v>
-      </c>
-      <c r="H41">
+        <v>-0.15599999999999992</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="1"/>
-        <v>2.6472017000000037</v>
-      </c>
-      <c r="I41" s="3">
+        <v>2.7047315999999983</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="2"/>
-        <v>-1.815450000000137</v>
-      </c>
+        <v>-2.0946319999999652</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>2.0946319999999652</v>
+      </c>
+      <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -8874,18 +12487,23 @@
       <c r="B42">
         <v>1.734</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42">
         <f t="shared" si="0"/>
-        <v>{2.8,1.734},</v>
-      </c>
-      <c r="H42">
+        <v>-0.16500000000000004</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="1"/>
-        <v>2.8035146000000069</v>
-      </c>
-      <c r="I42" s="3">
+        <v>2.8609815000000007</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="2"/>
-        <v>-0.12552142857167961</v>
-      </c>
+        <v>-1.2196300000000182</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>1.2196300000000182</v>
+      </c>
+      <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -8894,18 +12512,23 @@
       <c r="B43">
         <v>1.718</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43">
         <f t="shared" si="0"/>
-        <v>{3,1.718},</v>
-      </c>
-      <c r="H43">
+        <v>-0.18100000000000005</v>
+      </c>
+      <c r="E43">
         <f t="shared" si="1"/>
-        <v>3.081404200000005</v>
-      </c>
-      <c r="I43" s="3">
+        <v>3.138759100000001</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="2"/>
-        <v>-2.7134733333335008</v>
-      </c>
+        <v>-2.7751820000000205</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>2.7751820000000205</v>
+      </c>
+      <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -8914,18 +12537,23 @@
       <c r="B44">
         <v>1.712</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44">
         <f t="shared" si="0"/>
-        <v>{3.2,1.712},</v>
-      </c>
-      <c r="H44">
+        <v>-0.18700000000000006</v>
+      </c>
+      <c r="E44">
         <f t="shared" si="1"/>
-        <v>3.1856128000000048</v>
-      </c>
-      <c r="I44" s="3">
+        <v>3.2429257000000011</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="2"/>
-        <v>0.44959999999985567</v>
-      </c>
+        <v>-0.8585140000000191</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="3"/>
+        <v>0.8585140000000191</v>
+      </c>
+      <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -8934,18 +12562,23 @@
       <c r="B45">
         <v>1.6950000000000001</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45">
         <f t="shared" si="0"/>
-        <v>{3.4,1.695},</v>
-      </c>
-      <c r="H45">
+        <v>-0.20399999999999996</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="1"/>
-        <v>3.4808705000000053</v>
-      </c>
-      <c r="I45" s="3">
+        <v>3.5380643999999992</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="2"/>
-        <v>-2.3785441176472175</v>
-      </c>
+        <v>-2.7612879999999862</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="3"/>
+        <v>2.7612879999999862</v>
+      </c>
+      <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -8954,18 +12587,23 @@
       <c r="B46">
         <v>1.6839999999999999</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46">
         <f t="shared" si="0"/>
-        <v>{3.6,1.684},</v>
-      </c>
-      <c r="H46">
+        <v>-0.21500000000000008</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="1"/>
-        <v>3.6719196000000061</v>
-      </c>
-      <c r="I46" s="3">
+        <v>3.7290365000000016</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="2"/>
-        <v>-1.9977666666668323</v>
-      </c>
+        <v>-2.5807300000000311</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="3"/>
+        <v>2.5807300000000311</v>
+      </c>
+      <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -8974,18 +12612,23 @@
       <c r="B47">
         <v>1.671</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C47">
         <f t="shared" si="0"/>
-        <v>{3.8,1.671},</v>
-      </c>
-      <c r="H47">
+        <v>-0.22799999999999998</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="1"/>
-        <v>3.8977049000000044</v>
-      </c>
-      <c r="I47" s="3">
+        <v>3.9547307999999997</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="2"/>
-        <v>-2.5711815789474879</v>
-      </c>
+        <v>-3.0946159999999967</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>3.0946159999999967</v>
+      </c>
+      <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -8994,18 +12637,23 @@
       <c r="B48">
         <v>1.665</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C48">
         <f t="shared" si="0"/>
-        <v>{4,1.665},</v>
-      </c>
-      <c r="H48">
+        <v>-0.23399999999999999</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="1"/>
-        <v>4.0019135000000041</v>
-      </c>
-      <c r="I48" s="3">
+        <v>4.0588974000000002</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="2"/>
-        <v>-4.7837500000103006E-2</v>
-      </c>
+        <v>-1.1779480000000042</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>1.1779480000000042</v>
+      </c>
+      <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -9014,18 +12662,23 @@
       <c r="B49">
         <v>1.6539999999999999</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49">
         <f t="shared" si="0"/>
-        <v>{4.2,1.654},</v>
-      </c>
-      <c r="H49">
+        <v>-0.24500000000000011</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="1"/>
-        <v>4.1929626000000049</v>
-      </c>
-      <c r="I49" s="3">
+        <v>4.2498695000000026</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="2"/>
-        <v>0.16755714285703113</v>
-      </c>
+        <v>-0.99739000000004896</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="3"/>
+        <v>0.99739000000004896</v>
+      </c>
+      <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -9034,18 +12687,23 @@
       <c r="B50">
         <v>1.6419999999999999</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C50">
         <f t="shared" si="0"/>
-        <v>{4.4,1.642},</v>
-      </c>
-      <c r="H50">
+        <v>-0.25700000000000012</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="1"/>
-        <v>4.4013798000000079</v>
-      </c>
-      <c r="I50" s="3">
+        <v>4.4582027000000028</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="2"/>
-        <v>-3.1359090909263442E-2</v>
-      </c>
+        <v>-1.1640540000000499</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="3"/>
+        <v>1.1640540000000499</v>
+      </c>
+      <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -9054,18 +12712,23 @@
       <c r="B51">
         <v>1.631</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C51">
         <f t="shared" si="0"/>
-        <v>{4.6,1.631},</v>
-      </c>
-      <c r="H51">
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="1"/>
-        <v>4.5924289000000051</v>
-      </c>
-      <c r="I51" s="3">
+        <v>4.6491748000000008</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="2"/>
-        <v>0.16458913043466308</v>
-      </c>
+        <v>-0.98349600000002357</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>0.98349600000002357</v>
+      </c>
+      <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -9074,18 +12737,23 @@
       <c r="B52">
         <v>1.619</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C52">
         <f t="shared" si="0"/>
-        <v>{4.8,1.619},</v>
-      </c>
-      <c r="H52">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="1"/>
-        <v>4.8008461000000047</v>
-      </c>
-      <c r="I52" s="3">
+        <v>4.857508000000001</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="2"/>
-        <v>-1.7627083333434289E-2</v>
-      </c>
+        <v>-1.1501600000000245</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>1.1501600000000245</v>
+      </c>
+      <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -9094,1129 +12762,6 @@
       <c r="B53">
         <v>1.6080000000000001</v>
       </c>
-      <c r="C53" t="str">
-        <f>CONCATENATE("{", A53, ",", B53, "},")</f>
-        <v>{5,1.608},</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="1"/>
-        <v>4.9918952000000019</v>
-      </c>
-      <c r="I53" s="3">
-        <f t="shared" si="2"/>
-        <v>0.16209599999996271</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.899</v>
-      </c>
-      <c r="C2">
-        <f>B2-1.899</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>(-17.3611*C2)-0.0036</f>
-        <v>-3.5999999999999999E-3</v>
-      </c>
-      <c r="F2" t="e">
-        <f>((A2-E2)/A2)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.2</v>
-      </c>
-      <c r="B3">
-        <v>1.887</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C53" si="0">B3-1.899</f>
-        <v>-1.2000000000000011E-2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E53" si="1">(-17.3611*C3)-0.0036</f>
-        <v>0.2047332000000002</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F53" si="2">((A3-E3)/A3)*100</f>
-        <v>-2.3666000000000937</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.4</v>
-      </c>
-      <c r="B4">
-        <v>1.875</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>-2.4000000000000021E-2</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.41306640000000039</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>-3.2666000000000919</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.6</v>
-      </c>
-      <c r="B5">
-        <v>1.863</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>-3.6000000000000032E-2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.6213996000000005</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>-3.5666000000000864</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.8</v>
-      </c>
-      <c r="B6">
-        <v>1.8520000000000001</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>-4.6999999999999931E-2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.81237169999999881</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>-1.5464624999998455</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1.841</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>-5.8000000000000052E-2</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>1.0033438000000008</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>-0.3343800000000785</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.823</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>-7.6000000000000068E-2</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>1.3158436000000011</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>-9.6536333333334312</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.4</v>
-      </c>
-      <c r="B9">
-        <v>1.8180000000000001</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-8.0999999999999961E-2</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>1.4026490999999992</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>-0.18922142857137814</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.6</v>
-      </c>
-      <c r="B10">
-        <v>1.806</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>-9.2999999999999972E-2</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>1.6109822999999994</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>-0.68639374999995839</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.8</v>
-      </c>
-      <c r="B11">
-        <v>1.7949999999999999</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>-0.10400000000000009</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>1.8019544000000016</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>-0.1085777777778654</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>1.784</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>-0.11499999999999999</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>1.9929264999999998</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>0.35367500000000884</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B13">
-        <v>1.766</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>-0.13300000000000001</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>2.3054263000000002</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>-4.7921045454545439</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2.4</v>
-      </c>
-      <c r="B14">
-        <v>1.76</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>-0.13900000000000001</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>2.4095929000000003</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>-0.39970416666668118</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2.6</v>
-      </c>
-      <c r="B15">
-        <v>1.748</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>-0.15100000000000002</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>2.6179261000000005</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>-0.68946538461539952</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2.8</v>
-      </c>
-      <c r="B16">
-        <v>1.7370000000000001</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>-0.16199999999999992</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>2.8088981999999985</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>-0.31779285714280842</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>1.724</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>-0.17500000000000004</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>3.0345925000000009</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>-1.1530833333333637</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3.2</v>
-      </c>
-      <c r="B18">
-        <v>1.708</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>-0.19100000000000006</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>3.3123701000000012</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>-3.5115656250000322</v>
-      </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3.4</v>
-      </c>
-      <c r="B19">
-        <v>1.702</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>-0.19700000000000006</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>3.4165367000000013</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
-        <v>-0.486373529411806</v>
-      </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3.6</v>
-      </c>
-      <c r="B20">
-        <v>1.6910000000000001</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>-0.20799999999999996</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>3.6075087999999993</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
-        <v>-0.20857777777775569</v>
-      </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>3.8</v>
-      </c>
-      <c r="B21">
-        <v>1.679</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>-0.21999999999999997</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>3.8158419999999995</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>-0.4168947368420971</v>
-      </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>-0.23100000000000009</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>4.0068141000000024</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
-        <v>-0.17035250000005941</v>
-      </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4.2</v>
-      </c>
-      <c r="B23">
-        <v>1.6519999999999999</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>-0.24700000000000011</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>4.2845917000000027</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
-        <v>-2.0140880952381544</v>
-      </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B24">
-        <v>1.6439999999999999</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>-0.25500000000000012</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>4.4234805000000028</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="2"/>
-        <v>-0.53364772727278309</v>
-      </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B25">
-        <v>1.631</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>-0.26800000000000002</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>4.6491748000000008</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
-        <v>-1.0690173913043737</v>
-      </c>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4.8</v>
-      </c>
-      <c r="B26">
-        <v>1.621</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>-0.27800000000000002</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>4.822785800000001</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
-        <v>-0.47470416666669146</v>
-      </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>1.609</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>-0.29000000000000004</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>5.0311190000000012</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="2"/>
-        <v>-0.62238000000002458</v>
-      </c>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>1.8959999999999999</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>-3.0000000000001137E-3</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>4.8483300000001978E-2</v>
-      </c>
-      <c r="F28" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>0.2</v>
-      </c>
-      <c r="B29">
-        <v>1.885</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>-1.4000000000000012E-2</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>0.23945540000000023</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="2"/>
-        <v>-19.727700000000112</v>
-      </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>0.4</v>
-      </c>
-      <c r="B30">
-        <v>1.867</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>-3.2000000000000028E-2</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>0.55195520000000042</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="2"/>
-        <v>-37.988800000000097</v>
-      </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0.6</v>
-      </c>
-      <c r="B31">
-        <v>1.8580000000000001</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>-4.0999999999999925E-2</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>0.7082050999999987</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="2"/>
-        <v>-18.034183333333122</v>
-      </c>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0.8</v>
-      </c>
-      <c r="B32">
-        <v>1.8460000000000001</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>-5.2999999999999936E-2</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>0.91653829999999892</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="2"/>
-        <v>-14.567287499999859</v>
-      </c>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>1.8340000000000001</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>-6.4999999999999947E-2</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>1.1248714999999991</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="2"/>
-        <v>-12.487149999999914</v>
-      </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1.2</v>
-      </c>
-      <c r="B34">
-        <v>1.827</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>-7.2000000000000064E-2</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>1.246399200000001</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="2"/>
-        <v>-3.8666000000000906</v>
-      </c>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1.4</v>
-      </c>
-      <c r="B35">
-        <v>1.8109999999999999</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>-8.8000000000000078E-2</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>1.5241768000000013</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="2"/>
-        <v>-8.8697714285715303</v>
-      </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1.6</v>
-      </c>
-      <c r="B36">
-        <v>1.7989999999999999</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>1.7325100000000015</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="2"/>
-        <v>-8.2818750000000918</v>
-      </c>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1.8</v>
-      </c>
-      <c r="B37">
-        <v>1.788</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>-0.11099999999999999</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>1.9234820999999998</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="2"/>
-        <v>-6.8601166666666504</v>
-      </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <v>1.7809999999999999</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>-0.1180000000000001</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>2.0450098000000017</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="2"/>
-        <v>-2.2504900000000827</v>
-      </c>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B39">
-        <v>1.7689999999999999</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>-0.13000000000000012</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>2.2533430000000019</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="2"/>
-        <v>-2.4246818181818948</v>
-      </c>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2.4</v>
-      </c>
-      <c r="B40">
-        <v>1.7569999999999999</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>-0.14200000000000013</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>2.4616762000000021</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="2"/>
-        <v>-2.5698416666667576</v>
-      </c>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2.6</v>
-      </c>
-      <c r="B41">
-        <v>1.7430000000000001</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>-0.15599999999999992</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>2.7047315999999983</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="2"/>
-        <v>-4.0281384615383944</v>
-      </c>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2.8</v>
-      </c>
-      <c r="B42">
-        <v>1.734</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>-0.16500000000000004</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>2.8609815000000007</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="2"/>
-        <v>-2.1779107142857468</v>
-      </c>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43">
-        <v>1.718</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>-0.18100000000000005</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>3.138759100000001</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="2"/>
-        <v>-4.6253033333333669</v>
-      </c>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>3.2</v>
-      </c>
-      <c r="B44">
-        <v>1.712</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>-0.18700000000000006</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>3.2429257000000011</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="2"/>
-        <v>-1.3414281250000299</v>
-      </c>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>3.4</v>
-      </c>
-      <c r="B45">
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>-0.20399999999999996</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>3.5380643999999992</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="2"/>
-        <v>-4.0607176470588033</v>
-      </c>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>3.6</v>
-      </c>
-      <c r="B46">
-        <v>1.6839999999999999</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>-0.21500000000000008</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>3.7290365000000016</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="2"/>
-        <v>-3.5843472222222652</v>
-      </c>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>3.8</v>
-      </c>
-      <c r="B47">
-        <v>1.671</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>-0.22799999999999998</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>3.9547307999999997</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="2"/>
-        <v>-4.0718631578947324</v>
-      </c>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>4</v>
-      </c>
-      <c r="B48">
-        <v>1.665</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
-        <v>-0.23399999999999999</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>4.0588974000000002</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="2"/>
-        <v>-1.4724350000000053</v>
-      </c>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>4.2</v>
-      </c>
-      <c r="B49">
-        <v>1.6539999999999999</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>-0.24500000000000011</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="1"/>
-        <v>4.2498695000000026</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="2"/>
-        <v>-1.1873690476191059</v>
-      </c>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B50">
-        <v>1.6419999999999999</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>-0.25700000000000012</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="1"/>
-        <v>4.4582027000000028</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="2"/>
-        <v>-1.3227886363636929</v>
-      </c>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B51">
-        <v>1.631</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>-0.26800000000000002</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="1"/>
-        <v>4.6491748000000008</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="2"/>
-        <v>-1.0690173913043737</v>
-      </c>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>4.8</v>
-      </c>
-      <c r="B52">
-        <v>1.619</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>4.857508000000001</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="2"/>
-        <v>-1.1980833333333589</v>
-      </c>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>5</v>
-      </c>
-      <c r="B53">
-        <v>1.6080000000000001</v>
-      </c>
       <c r="C53">
         <f t="shared" si="0"/>
         <v>-0.29099999999999993</v>
@@ -10229,7 +12774,23 @@
         <f t="shared" si="2"/>
         <v>-0.96960199999998053</v>
       </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>0.96960199999998053</v>
+      </c>
       <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="6">
+        <f>MAX(G2:G53)</f>
+        <v>3.0946159999999967</v>
+      </c>
+      <c r="H54" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -10239,15 +12800,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>17</v>
       </c>
@@ -10255,7 +12816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -10274,17 +12835,25 @@
         <f t="shared" ref="F2:F11" si="0">((A2-E2)/A2)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="5">
+        <f>(-0.0469*A2)+1.2712</f>
+        <v>1.2712000000000001</v>
+      </c>
+      <c r="I2">
+        <f>H2/29.2424</f>
+        <v>4.3471124121139175E-2</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.2</v>
       </c>
@@ -10303,8 +12872,16 @@
         <f t="shared" si="0"/>
         <v>1.8290000000011075</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H13" si="3">(-0.0469*A3)+1.2712</f>
+        <v>1.2618200000000002</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I13" si="4">H3/29.2424</f>
+        <v>4.3150357015840017E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.4</v>
       </c>
@@ -10323,8 +12900,16 @@
         <f t="shared" si="0"/>
         <v>-18.339749999998737</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="4">
+        <f t="shared" si="3"/>
+        <v>1.25244</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>4.2829589910540859E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.6</v>
       </c>
@@ -10343,8 +12928,16 @@
         <f t="shared" si="0"/>
         <v>-3.7536666666666738</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2430600000000001</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>4.2508822805241708E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.8</v>
       </c>
@@ -10363,8 +12956,16 @@
         <f t="shared" si="0"/>
         <v>-1.7878749999994115</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2336800000000001</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>4.218805569994255E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -10383,8 +12984,16 @@
         <f t="shared" si="0"/>
         <v>3.6533999999999622</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2243000000000002</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>4.18672885946434E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -10403,8 +13012,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2712000000000001</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>4.3471124121139175E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.2</v>
       </c>
@@ -10423,8 +13040,16 @@
         <f t="shared" si="0"/>
         <v>-8.8255000000000141</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2618200000000002</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>4.3150357015840017E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.4</v>
       </c>
@@ -10443,8 +13068,16 @@
         <f t="shared" si="0"/>
         <v>2.9692499999999509</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="4">
+        <f t="shared" si="3"/>
+        <v>1.25244</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>4.2829589910540859E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.6</v>
       </c>
@@ -10463,8 +13096,16 @@
         <f t="shared" si="0"/>
         <v>3.3493333333334818</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2430600000000001</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>4.2508822805241708E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.8</v>
       </c>
@@ -10483,8 +13124,16 @@
         <f>((A12-E12)/A12)*100</f>
         <v>-1.7878749999994115</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2336800000000001</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>4.218805569994255E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -10503,14 +13152,22 @@
         <f>((A13-E13)/A13)*100</f>
         <v>1.5225000000004485</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2243000000000002</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>4.18672885946434E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -10530,15 +13187,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>17</v>
       </c>
@@ -10546,7 +13203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -10561,21 +13218,25 @@
         <f>(-21.322*C2)-0.03838</f>
         <v>-3.8379999999999997E-2</v>
       </c>
-      <c r="F2" t="e">
-        <f t="shared" ref="F2:F11" si="0">((A2-E2)/A2)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2">
+        <f>((A2-E2)/$A$7)*100</f>
+        <v>3.8379999999999996</v>
+      </c>
+      <c r="G2">
+        <f>ABS(F2)</f>
+        <v>3.8379999999999996</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.2</v>
       </c>
@@ -10583,19 +13244,23 @@
         <v>1.262</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C13" si="1">B3-1.273</f>
+        <f t="shared" ref="C3:C13" si="0">B3-1.273</f>
         <v>-1.0999999999999899E-2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E13" si="2">(-21.322*C3)-0.03838</f>
+        <f t="shared" ref="E3:E13" si="1">(-21.322*C3)-0.03838</f>
         <v>0.19616199999999784</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>1.9190000000010865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F3:F13" si="2">((A3-E3)/$A$7)*100</f>
+        <v>0.3838000000002173</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="3">ABS(F3)</f>
+        <v>0.3838000000002173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.4</v>
       </c>
@@ -10603,19 +13268,23 @@
         <v>1.2490000000000001</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>-2.3999999999999799E-2</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="1"/>
-        <v>-2.3999999999999799E-2</v>
-      </c>
-      <c r="E4">
+        <v>0.47334799999999577</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="2"/>
-        <v>0.47334799999999577</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>-18.336999999998937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-7.334799999999575</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>7.334799999999575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.6</v>
       </c>
@@ -10623,19 +13292,23 @@
         <v>1.242</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-3.0999999999999917E-2</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="1"/>
-        <v>-3.0999999999999917E-2</v>
-      </c>
-      <c r="E5">
+        <v>0.62260199999999821</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="2"/>
-        <v>0.62260199999999821</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>-3.7669999999997059</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-2.2601999999998235</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>2.2601999999998235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.8</v>
       </c>
@@ -10643,19 +13316,23 @@
         <v>1.2330000000000001</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-3.9999999999999813E-2</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="1"/>
-        <v>-3.9999999999999813E-2</v>
-      </c>
-      <c r="E6">
+        <v>0.814499999999996</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="2"/>
-        <v>0.814499999999996</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>-1.8124999999994951</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-1.4499999999995961</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>1.4499999999995961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -10663,19 +13340,23 @@
         <v>1.226</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-4.6999999999999931E-2</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="1"/>
-        <v>-4.6999999999999931E-2</v>
-      </c>
-      <c r="E7">
+        <v>0.96375399999999856</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.96375399999999856</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
         <v>3.6246000000001444</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>3.6246000000001444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -10683,19 +13364,23 @@
         <v>1.272</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999988987E-4</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="1"/>
-        <v>-9.9999999999988987E-4</v>
-      </c>
-      <c r="E8">
+        <v>-1.7058000000002346E-2</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="2"/>
-        <v>-1.7058000000002346E-2</v>
-      </c>
-      <c r="F8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.7058000000002345</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>1.7058000000002345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.2</v>
       </c>
@@ -10703,19 +13388,23 @@
         <v>1.2609999999999999</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000011E-2</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
-        <v>-1.2000000000000011E-2</v>
-      </c>
-      <c r="E9">
+        <v>0.2174840000000002</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.2174840000000002</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>-8.7420000000000968</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-1.7484000000000193</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>1.7484000000000193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0.4</v>
       </c>
@@ -10723,19 +13412,23 @@
         <v>1.2529999999999999</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="1"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="E10">
+        <v>0.3880600000000004</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="2"/>
-        <v>0.3880600000000004</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>2.9849999999999044</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.1939999999999618</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>1.1939999999999618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.6</v>
       </c>
@@ -10743,19 +13436,23 @@
         <v>1.244</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-2.8999999999999915E-2</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="1"/>
-        <v>-2.8999999999999915E-2</v>
-      </c>
-      <c r="E11">
+        <v>0.5799579999999982</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="2"/>
-        <v>0.5799579999999982</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>3.3403333333336303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.0042000000001781</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>2.0042000000001781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0.8</v>
       </c>
@@ -10763,19 +13460,23 @@
         <v>1.2330000000000001</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-3.9999999999999813E-2</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="1"/>
-        <v>-3.9999999999999813E-2</v>
-      </c>
-      <c r="E12">
+        <v>0.814499999999996</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.814499999999996</v>
-      </c>
-      <c r="F12">
-        <f>((A12-E12)/A12)*100</f>
-        <v>-1.8124999999994951</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-1.4499999999995961</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>1.4499999999995961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -10783,25 +13484,39 @@
         <v>1.2250000000000001</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-4.7999999999999821E-2</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
-        <v>-4.7999999999999821E-2</v>
-      </c>
-      <c r="E13">
+        <v>0.98507599999999618</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.98507599999999618</v>
-      </c>
-      <c r="F13">
-        <f>((A13-E13)/A13)*100</f>
         <v>1.4924000000003823</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>1.4924000000003823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="6">
+        <f>MAX(G2:G13)</f>
+        <v>7.334799999999575</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -10814,6 +13529,9 @@
       <c r="A19" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="B18:B24">
+    <sortCondition ref="B18"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10823,8 +13541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10946,4 +13664,214 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-101.1</v>
+      </c>
+      <c r="C2">
+        <f>B2+101.1</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>-96.38+(0.88*A2)</f>
+        <v>-96.38</v>
+      </c>
+      <c r="G2" s="3">
+        <f>(0.8796*C2)+4.7143</f>
+        <v>4.7142999999999997</v>
+      </c>
+      <c r="H2">
+        <f>((G2-A2)/$A$7)*100</f>
+        <v>7.8571666666666662</v>
+      </c>
+      <c r="I2">
+        <f>ABS(H2)</f>
+        <v>7.8571666666666662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>-73.400000000000006</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C7" si="0">B3+101.1</f>
+        <v>27.699999999999989</v>
+      </c>
+      <c r="E3">
+        <f>-96.38+(0.88*A3)</f>
+        <v>-78.78</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G7" si="1">(0.8796*C3)+4.7143</f>
+        <v>29.079219999999992</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="2">((G3-A3)/$A$7)*100</f>
+        <v>15.13203333333332</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="3">ABS(H3)</f>
+        <v>15.13203333333332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>-65.3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E4">
+        <f>-96.38+(0.88*A4)</f>
+        <v>-69.97999999999999</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>36.203980000000001</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>10.339966666666669</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>10.339966666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>-64.3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E5">
+        <f>-96.38+(0.88*A5)</f>
+        <v>-61.179999999999993</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>37.083579999999998</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>-4.860700000000004</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>4.860700000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>-53.6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>47.499999999999993</v>
+      </c>
+      <c r="E6">
+        <f>-96.38+(0.88*A6)</f>
+        <v>-52.379999999999995</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>46.4953</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>-5.8411666666666662</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>5.8411666666666662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>-44.7</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>56.399999999999991</v>
+      </c>
+      <c r="E7">
+        <f>-96.38+(0.88*A7)</f>
+        <v>-43.58</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>54.323739999999994</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>-9.460433333333345</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>9.460433333333345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="6">
+        <f>MAX(I2:I7)</f>
+        <v>15.13203333333332</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>